--- a/docs/character-codes.xlsx
+++ b/docs/character-codes.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Key Codes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Special" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sorted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Key Codes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Special" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sorted" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="301">
   <si>
     <t xml:space="preserve">KEY </t>
   </si>
@@ -26,13 +33,13 @@
     <t xml:space="preserve">BREAK CODE </t>
   </si>
   <si>
-    <t>ASCII</t>
+    <t xml:space="preserve">ASCII</t>
   </si>
   <si>
     <t xml:space="preserve">SHIFT + ASCII</t>
   </si>
   <si>
-    <t>CMD</t>
+    <t xml:space="preserve">CMD</t>
   </si>
   <si>
     <t xml:space="preserve">SHIFT + CMD</t>
@@ -356,7 +363,7 @@
     <t xml:space="preserve"> E0,1F </t>
   </si>
   <si>
-    <t>E0,F0,1F</t>
+    <t xml:space="preserve">E0,F0,1F</t>
   </si>
   <si>
     <t xml:space="preserve">L ALT </t>
@@ -377,7 +384,7 @@
     <t xml:space="preserve"> E0,14 </t>
   </si>
   <si>
-    <t>E0,F0,14</t>
+    <t xml:space="preserve">E0,F0,14</t>
   </si>
   <si>
     <t xml:space="preserve">R GUI </t>
@@ -386,7 +393,7 @@
     <t xml:space="preserve"> E0,27 </t>
   </si>
   <si>
-    <t>E0,F0,27</t>
+    <t xml:space="preserve">E0,F0,27</t>
   </si>
   <si>
     <t xml:space="preserve">R ALT </t>
@@ -395,7 +402,7 @@
     <t xml:space="preserve"> E0,11 </t>
   </si>
   <si>
-    <t>E0,F0,11</t>
+    <t xml:space="preserve">E0,F0,11</t>
   </si>
   <si>
     <t xml:space="preserve"> APPS </t>
@@ -404,7 +411,7 @@
     <t xml:space="preserve"> E0,2F </t>
   </si>
   <si>
-    <t>E0,F0,2F</t>
+    <t xml:space="preserve">E0,F0,2F</t>
   </si>
   <si>
     <t xml:space="preserve">ENTER </t>
@@ -509,7 +516,7 @@
     <t xml:space="preserve"> F0,07 </t>
   </si>
   <si>
-    <t>SCROLL</t>
+    <t xml:space="preserve">SCROLL</t>
   </si>
   <si>
     <t xml:space="preserve"> 7E </t>
@@ -524,13 +531,13 @@
     <t xml:space="preserve"> FO,54 </t>
   </si>
   <si>
-    <t>INSERT</t>
+    <t xml:space="preserve">INSERT</t>
   </si>
   <si>
     <t xml:space="preserve">E0,70 </t>
   </si>
   <si>
-    <t>E0,F0,70</t>
+    <t xml:space="preserve">E0,F0,70</t>
   </si>
   <si>
     <t xml:space="preserve"> HOME </t>
@@ -539,10 +546,10 @@
     <t xml:space="preserve">E0,6C </t>
   </si>
   <si>
-    <t>E0,F0,6C</t>
-  </si>
-  <si>
-    <t>CMD_HOME</t>
+    <t xml:space="preserve">E0,F0,6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD_HOME</t>
   </si>
   <si>
     <t xml:space="preserve">PG UP </t>
@@ -551,16 +558,16 @@
     <t xml:space="preserve">E0,7D </t>
   </si>
   <si>
-    <t>E0,F0,7D</t>
-  </si>
-  <si>
-    <t>DELETE</t>
+    <t xml:space="preserve">E0,F0,7D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE</t>
   </si>
   <si>
     <t xml:space="preserve">E0,71 </t>
   </si>
   <si>
-    <t>E0,F0,71</t>
+    <t xml:space="preserve">E0,F0,71</t>
   </si>
   <si>
     <t xml:space="preserve">32 CMD_LEFT</t>
@@ -572,10 +579,10 @@
     <t xml:space="preserve">E0,69 </t>
   </si>
   <si>
-    <t>E0,F0,69</t>
-  </si>
-  <si>
-    <t>CMD_END</t>
+    <t xml:space="preserve">E0,F0,69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD_END</t>
   </si>
   <si>
     <t xml:space="preserve">PG DN </t>
@@ -584,10 +591,10 @@
     <t xml:space="preserve">E0,7A </t>
   </si>
   <si>
-    <t>E0,F0,7A</t>
-  </si>
-  <si>
-    <t>CMD_DOWN</t>
+    <t xml:space="preserve">E0,F0,7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD_DOWN</t>
   </si>
   <si>
     <t xml:space="preserve"> UP </t>
@@ -596,7 +603,7 @@
     <t xml:space="preserve">E0,75 </t>
   </si>
   <si>
-    <t>E0,F0,75</t>
+    <t xml:space="preserve">E0,F0,75</t>
   </si>
   <si>
     <t xml:space="preserve"> LEFT </t>
@@ -605,10 +612,10 @@
     <t xml:space="preserve">E0,6B </t>
   </si>
   <si>
-    <t>E0,F0,6B</t>
-  </si>
-  <si>
-    <t>CMD_LEFT</t>
+    <t xml:space="preserve">E0,F0,6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD_LEFT</t>
   </si>
   <si>
     <t xml:space="preserve"> DOWN </t>
@@ -617,7 +624,7 @@
     <t xml:space="preserve">E0,72 </t>
   </si>
   <si>
-    <t>E0,F0,72</t>
+    <t xml:space="preserve">E0,F0,72</t>
   </si>
   <si>
     <t xml:space="preserve">RIGHT </t>
@@ -626,10 +633,10 @@
     <t xml:space="preserve">E0,74 </t>
   </si>
   <si>
-    <t>E0,F0,74</t>
-  </si>
-  <si>
-    <t>CMD_RIGHT</t>
+    <t xml:space="preserve">E0,F0,74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD_RIGHT</t>
   </si>
   <si>
     <t xml:space="preserve"> NUM </t>
@@ -644,7 +651,7 @@
     <t xml:space="preserve">E0,4A </t>
   </si>
   <si>
-    <t>E0,F0,4A</t>
+    <t xml:space="preserve">E0,F0,4A</t>
   </si>
   <si>
     <t xml:space="preserve"> KP * </t>
@@ -677,7 +684,7 @@
     <t xml:space="preserve">E0,5A </t>
   </si>
   <si>
-    <t>E0,F0,5A</t>
+    <t xml:space="preserve">E0,F0,5A</t>
   </si>
   <si>
     <t xml:space="preserve"> KP . </t>
@@ -803,7 +810,7 @@
     <t xml:space="preserve"> F0,4A </t>
   </si>
   <si>
-    <t>Specials</t>
+    <t xml:space="preserve">Specials</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE </t>
@@ -812,138 +819,165 @@
     <t xml:space="preserve">MAKE CODE(DEC)</t>
   </si>
   <si>
-    <t>SHIFT+CMD</t>
-  </si>
-  <si>
-    <t>0A</t>
-  </si>
-  <si>
-    <t>0B</t>
-  </si>
-  <si>
-    <t>0C</t>
-  </si>
-  <si>
-    <t>0D</t>
-  </si>
-  <si>
-    <t>0E</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>2E</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>3E</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>5B</t>
-  </si>
-  <si>
-    <t>5D</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>6C</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>7B</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>7D</t>
-  </si>
-  <si>
-    <t>7E</t>
+    <t xml:space="preserve">SHIFT+CMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="11.000000"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.000000"/>
-      <name val="Aptos"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Aptos"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Aptos"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -955,591 +989,138 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="13">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="New Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625"/>
-    <col customWidth="1" min="2" max="2" style="2" width="10.57421875"/>
-    <col min="3" max="3" style="2" width="9.140625"/>
-    <col customWidth="1" min="4" max="4" style="2" width="10.7109375"/>
-    <col min="5" max="5" style="1" width="9.140625"/>
-    <col customWidth="1" min="6" max="6" style="1" width="12.00390625"/>
-    <col customWidth="1" min="7" max="7" style="1" width="13.140625"/>
-    <col customWidth="1" min="8" max="8" style="3" width="12.7109375"/>
-    <col min="9" max="16384" style="1" width="9.140625"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5">
+    <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1561,10 +1142,8 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" ht="15">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1574,138 +1153,128 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="G2" s="5">
-        <f t="shared" ref="G2:G9" si="0">E2</f>
+      <c r="G2" s="5" t="n">
+        <f aca="false">E2</f>
         <v>65</v>
       </c>
-      <c r="H2" s="6">
-        <f t="shared" ref="H2:H9" si="1">F2</f>
+      <c r="H2" s="6" t="n">
+        <f aca="false">F2</f>
         <v>97</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" ht="15">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F10" si="2">F2+1</f>
+      <c r="F3" s="5" t="n">
+        <f aca="false">F2+1</f>
         <v>98</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" si="0"/>
+      <c r="G3" s="5" t="n">
+        <f aca="false">E3</f>
         <v>66</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" si="1"/>
+      <c r="H3" s="6" t="n">
+        <f aca="false">F3</f>
         <v>98</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" ht="15">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="2"/>
+      <c r="F4" s="5" t="n">
+        <f aca="false">F3+1</f>
         <v>99</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
+      <c r="G4" s="5" t="n">
+        <f aca="false">E4</f>
         <v>67</v>
       </c>
-      <c r="H4" s="6">
-        <f t="shared" si="1"/>
+      <c r="H4" s="6" t="n">
+        <f aca="false">F4</f>
         <v>99</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" ht="15">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E10" si="3">E4+1</f>
+      <c r="E5" s="5" t="n">
+        <f aca="false">E4+1</f>
         <v>68</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="2"/>
+      <c r="F5" s="5" t="n">
+        <f aca="false">F4+1</f>
         <v>100</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
+      <c r="G5" s="5" t="n">
+        <f aca="false">E5</f>
         <v>68</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
+      <c r="H5" s="6" t="n">
+        <f aca="false">F5</f>
         <v>100</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" ht="15">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" si="3"/>
+      <c r="E6" s="5" t="n">
+        <f aca="false">E5+1</f>
         <v>69</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="2"/>
+      <c r="F6" s="5" t="n">
+        <f aca="false">F5+1</f>
         <v>101</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" si="0"/>
+      <c r="G6" s="5" t="n">
+        <f aca="false">E6</f>
         <v>69</v>
       </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
+      <c r="H6" s="6" t="n">
+        <f aca="false">F6</f>
         <v>101</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" ht="15">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1715,113 +1284,105 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" si="3"/>
+      <c r="E7" s="5" t="n">
+        <f aca="false">E6+1</f>
         <v>70</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
+      <c r="F7" s="5" t="n">
+        <f aca="false">F6+1</f>
         <v>102</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" si="0"/>
+      <c r="G7" s="5" t="n">
+        <f aca="false">E7</f>
         <v>70</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" si="1"/>
+      <c r="H7" s="6" t="n">
+        <f aca="false">F7</f>
         <v>102</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" ht="15">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="n">
         <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" si="3"/>
+      <c r="E8" s="5" t="n">
+        <f aca="false">E7+1</f>
         <v>71</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="2"/>
+      <c r="F8" s="5" t="n">
+        <f aca="false">F7+1</f>
         <v>103</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" si="0"/>
+      <c r="G8" s="5" t="n">
+        <f aca="false">E8</f>
         <v>71</v>
       </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
+      <c r="H8" s="6" t="n">
+        <f aca="false">F8</f>
         <v>103</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" ht="15">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="n">
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" si="3"/>
+      <c r="E9" s="5" t="n">
+        <f aca="false">E8+1</f>
         <v>72</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
+      <c r="F9" s="5" t="n">
+        <f aca="false">F8+1</f>
         <v>104</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" si="0"/>
+      <c r="G9" s="5" t="n">
+        <f aca="false">E9</f>
         <v>72</v>
       </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
+      <c r="H9" s="6" t="n">
+        <f aca="false">F9</f>
         <v>104</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" ht="15">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="5" t="n">
         <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5">
-        <f t="shared" si="3"/>
+      <c r="E10" s="5" t="n">
+        <f aca="false">E9+1</f>
         <v>73</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
+      <c r="F10" s="5" t="n">
+        <f aca="false">F9+1</f>
         <v>105</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" ref="G10:G73" si="4">E10</f>
+      <c r="G10" s="5" t="n">
+        <f aca="false">E10</f>
         <v>73</v>
       </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:H70" si="5">F10</f>
+      <c r="H10" s="6" t="n">
+        <f aca="false">F10</f>
         <v>105</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" ht="15">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1831,55 +1392,51 @@
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" ref="E11:E74" si="6">E10+1</f>
+      <c r="E11" s="5" t="n">
+        <f aca="false">E10+1</f>
         <v>74</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" ref="F11:F27" si="7">F10+1</f>
+      <c r="F11" s="5" t="n">
+        <f aca="false">F10+1</f>
         <v>106</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" si="4"/>
+      <c r="G11" s="5" t="n">
+        <f aca="false">E11</f>
         <v>74</v>
       </c>
-      <c r="H11" s="6">
-        <f t="shared" si="5"/>
+      <c r="H11" s="6" t="n">
+        <f aca="false">F11</f>
         <v>106</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" ht="15">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="5" t="n">
         <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5">
-        <f t="shared" si="6"/>
+      <c r="E12" s="5" t="n">
+        <f aca="false">E11+1</f>
         <v>75</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="7"/>
+      <c r="F12" s="5" t="n">
+        <f aca="false">F11+1</f>
         <v>107</v>
       </c>
-      <c r="G12" s="5">
-        <f t="shared" si="4"/>
+      <c r="G12" s="5" t="n">
+        <f aca="false">E12</f>
         <v>75</v>
       </c>
-      <c r="H12" s="6">
-        <f t="shared" si="5"/>
+      <c r="H12" s="6" t="n">
+        <f aca="false">F12</f>
         <v>107</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" ht="15">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1889,26 +1446,24 @@
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5">
-        <f t="shared" si="6"/>
+      <c r="E13" s="5" t="n">
+        <f aca="false">E12+1</f>
         <v>76</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="7"/>
+      <c r="F13" s="5" t="n">
+        <f aca="false">F12+1</f>
         <v>108</v>
       </c>
-      <c r="G13" s="5">
-        <f t="shared" si="4"/>
+      <c r="G13" s="5" t="n">
+        <f aca="false">E13</f>
         <v>76</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="5"/>
+      <c r="H13" s="6" t="n">
+        <f aca="false">F13</f>
         <v>108</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" ht="15">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
@@ -1918,84 +1473,78 @@
       <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5">
-        <f t="shared" si="6"/>
+      <c r="E14" s="5" t="n">
+        <f aca="false">E13+1</f>
         <v>77</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="7"/>
+      <c r="F14" s="5" t="n">
+        <f aca="false">F13+1</f>
         <v>109</v>
       </c>
-      <c r="G14" s="5">
-        <f t="shared" si="4"/>
+      <c r="G14" s="5" t="n">
+        <f aca="false">E14</f>
         <v>77</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="5"/>
+      <c r="H14" s="6" t="n">
+        <f aca="false">F14</f>
         <v>109</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" ht="15">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="5" t="n">
         <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="6"/>
+      <c r="E15" s="5" t="n">
+        <f aca="false">E14+1</f>
         <v>78</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
+      <c r="F15" s="5" t="n">
+        <f aca="false">F14+1</f>
         <v>110</v>
       </c>
-      <c r="G15" s="5">
-        <f t="shared" si="4"/>
+      <c r="G15" s="5" t="n">
+        <f aca="false">E15</f>
         <v>78</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="5"/>
+      <c r="H15" s="6" t="n">
+        <f aca="false">F15</f>
         <v>110</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" ht="15">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="5" t="n">
         <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5">
-        <f t="shared" si="6"/>
+      <c r="E16" s="5" t="n">
+        <f aca="false">E15+1</f>
         <v>79</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="7"/>
+      <c r="F16" s="5" t="n">
+        <f aca="false">F15+1</f>
         <v>111</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" si="4"/>
+      <c r="G16" s="5" t="n">
+        <f aca="false">E16</f>
         <v>79</v>
       </c>
-      <c r="H16" s="6">
-        <f t="shared" si="5"/>
+      <c r="H16" s="6" t="n">
+        <f aca="false">F16</f>
         <v>111</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" ht="15">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -2005,55 +1554,51 @@
       <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5">
-        <f t="shared" si="6"/>
+      <c r="E17" s="5" t="n">
+        <f aca="false">E16+1</f>
         <v>80</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="7"/>
+      <c r="F17" s="5" t="n">
+        <f aca="false">F16+1</f>
         <v>112</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="4"/>
+      <c r="G17" s="5" t="n">
+        <f aca="false">E17</f>
         <v>80</v>
       </c>
-      <c r="H17" s="6">
-        <f t="shared" si="5"/>
+      <c r="H17" s="6" t="n">
+        <f aca="false">F17</f>
         <v>112</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" ht="15">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="5" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="5">
-        <f t="shared" si="6"/>
+      <c r="E18" s="5" t="n">
+        <f aca="false">E17+1</f>
         <v>81</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="7"/>
+      <c r="F18" s="5" t="n">
+        <f aca="false">F17+1</f>
         <v>113</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" si="4"/>
+      <c r="G18" s="5" t="n">
+        <f aca="false">E18</f>
         <v>81</v>
       </c>
-      <c r="H18" s="6">
-        <f t="shared" si="5"/>
+      <c r="H18" s="6" t="n">
+        <f aca="false">F18</f>
         <v>113</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" ht="15">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -2063,26 +1608,24 @@
       <c r="D19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5">
-        <f t="shared" si="6"/>
+      <c r="E19" s="5" t="n">
+        <f aca="false">E18+1</f>
         <v>82</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="7"/>
+      <c r="F19" s="5" t="n">
+        <f aca="false">F18+1</f>
         <v>114</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="4"/>
+      <c r="G19" s="5" t="n">
+        <f aca="false">E19</f>
         <v>82</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" si="5"/>
+      <c r="H19" s="6" t="n">
+        <f aca="false">F19</f>
         <v>114</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" ht="15">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
@@ -2092,26 +1635,24 @@
       <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5">
-        <f t="shared" si="6"/>
+      <c r="E20" s="5" t="n">
+        <f aca="false">E19+1</f>
         <v>83</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="7"/>
+      <c r="F20" s="5" t="n">
+        <f aca="false">F19+1</f>
         <v>115</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="4"/>
+      <c r="G20" s="5" t="n">
+        <f aca="false">E20</f>
         <v>83</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="5"/>
+      <c r="H20" s="6" t="n">
+        <f aca="false">F20</f>
         <v>115</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" ht="15">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2121,26 +1662,24 @@
       <c r="D21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="5">
-        <f t="shared" si="6"/>
+      <c r="E21" s="5" t="n">
+        <f aca="false">E20+1</f>
         <v>84</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="7"/>
+      <c r="F21" s="5" t="n">
+        <f aca="false">F20+1</f>
         <v>116</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="4"/>
+      <c r="G21" s="5" t="n">
+        <f aca="false">E21</f>
         <v>84</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="5"/>
+      <c r="H21" s="6" t="n">
+        <f aca="false">F21</f>
         <v>116</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" ht="15">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
@@ -2150,26 +1689,24 @@
       <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" si="6"/>
+      <c r="E22" s="5" t="n">
+        <f aca="false">E21+1</f>
         <v>85</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="7"/>
+      <c r="F22" s="5" t="n">
+        <f aca="false">F21+1</f>
         <v>117</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="4"/>
+      <c r="G22" s="5" t="n">
+        <f aca="false">E22</f>
         <v>85</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="5"/>
+      <c r="H22" s="6" t="n">
+        <f aca="false">F22</f>
         <v>117</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" ht="15">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
@@ -2179,26 +1716,24 @@
       <c r="D23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" si="6"/>
+      <c r="E23" s="5" t="n">
+        <f aca="false">E22+1</f>
         <v>86</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="7"/>
+      <c r="F23" s="5" t="n">
+        <f aca="false">F22+1</f>
         <v>118</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="4"/>
+      <c r="G23" s="5" t="n">
+        <f aca="false">E23</f>
         <v>86</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="5"/>
+      <c r="H23" s="6" t="n">
+        <f aca="false">F23</f>
         <v>118</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" ht="15">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
@@ -2208,84 +1743,78 @@
       <c r="D24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" si="6"/>
+      <c r="E24" s="5" t="n">
+        <f aca="false">E23+1</f>
         <v>87</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="7"/>
+      <c r="F24" s="5" t="n">
+        <f aca="false">F23+1</f>
         <v>119</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="4"/>
+      <c r="G24" s="5" t="n">
+        <f aca="false">E24</f>
         <v>87</v>
       </c>
-      <c r="H24" s="6">
-        <f t="shared" si="5"/>
+      <c r="H24" s="6" t="n">
+        <f aca="false">F24</f>
         <v>119</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" ht="15">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="5" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="6"/>
+      <c r="E25" s="5" t="n">
+        <f aca="false">E24+1</f>
         <v>88</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="7"/>
+      <c r="F25" s="5" t="n">
+        <f aca="false">F24+1</f>
         <v>120</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="4"/>
+      <c r="G25" s="5" t="n">
+        <f aca="false">E25</f>
         <v>88</v>
       </c>
-      <c r="H25" s="6">
-        <f t="shared" si="5"/>
+      <c r="H25" s="6" t="n">
+        <f aca="false">F25</f>
         <v>120</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" ht="15">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="5" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" si="6"/>
+      <c r="E26" s="5" t="n">
+        <f aca="false">E25+1</f>
         <v>89</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="7"/>
+      <c r="F26" s="5" t="n">
+        <f aca="false">F25+1</f>
         <v>121</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="4"/>
+      <c r="G26" s="5" t="n">
+        <f aca="false">E26</f>
         <v>89</v>
       </c>
-      <c r="H26" s="6">
-        <f t="shared" si="5"/>
+      <c r="H26" s="6" t="n">
+        <f aca="false">F26</f>
         <v>121</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" ht="15">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
@@ -2295,82 +1824,76 @@
       <c r="D27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="5">
-        <f t="shared" si="6"/>
+      <c r="E27" s="5" t="n">
+        <f aca="false">E26+1</f>
         <v>90</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="7"/>
+      <c r="F27" s="5" t="n">
+        <f aca="false">F26+1</f>
         <v>122</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="4"/>
+      <c r="G27" s="5" t="n">
+        <f aca="false">E27</f>
         <v>90</v>
       </c>
-      <c r="H27" s="6">
-        <f t="shared" si="5"/>
+      <c r="H27" s="6" t="n">
+        <f aca="false">F27</f>
         <v>122</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" ht="15">
-      <c r="B28" s="5">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="5" t="n">
         <v>45</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="4"/>
+      <c r="G28" s="5" t="n">
+        <f aca="false">E28</f>
         <v>48</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="5"/>
+      <c r="H28" s="6" t="n">
+        <f aca="false">F28</f>
         <v>41</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" ht="15">
-      <c r="B29" s="5">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="5" t="n">
         <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="5">
-        <f t="shared" si="6"/>
+      <c r="E29" s="5" t="n">
+        <f aca="false">E28+1</f>
         <v>49</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="4"/>
+      <c r="G29" s="5" t="n">
+        <f aca="false">E29</f>
         <v>49</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" si="5"/>
+      <c r="H29" s="6" t="n">
+        <f aca="false">F29</f>
         <v>33</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" ht="15">
-      <c r="B30" s="5">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2379,82 +1902,76 @@
       <c r="D30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="5">
-        <f t="shared" si="6"/>
+      <c r="E30" s="5" t="n">
+        <f aca="false">E29+1</f>
         <v>50</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="4"/>
+      <c r="G30" s="5" t="n">
+        <f aca="false">E30</f>
         <v>50</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="5"/>
+      <c r="H30" s="6" t="n">
+        <f aca="false">F30</f>
         <v>64</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" ht="15">
-      <c r="B31" s="5">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="5" t="n">
         <v>26</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="5">
-        <f t="shared" si="6"/>
+      <c r="E31" s="5" t="n">
+        <f aca="false">E30+1</f>
         <v>51</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="4"/>
+      <c r="G31" s="5" t="n">
+        <f aca="false">E31</f>
         <v>51</v>
       </c>
-      <c r="H31" s="6">
-        <f t="shared" si="5"/>
+      <c r="H31" s="6" t="n">
+        <f aca="false">F31</f>
         <v>35</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" ht="15">
-      <c r="B32" s="5">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="5" t="n">
         <v>25</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="5">
-        <f t="shared" si="6"/>
+      <c r="E32" s="5" t="n">
+        <f aca="false">E31+1</f>
         <v>52</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="4"/>
+      <c r="G32" s="5" t="n">
+        <f aca="false">E32</f>
         <v>52</v>
       </c>
-      <c r="H32" s="6">
-        <f t="shared" si="5"/>
+      <c r="H32" s="6" t="n">
+        <f aca="false">F32</f>
         <v>36</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" ht="15">
-      <c r="B33" s="5">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5" t="n">
         <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2463,54 +1980,50 @@
       <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="5">
-        <f t="shared" si="6"/>
+      <c r="E33" s="5" t="n">
+        <f aca="false">E32+1</f>
         <v>53</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="4"/>
+      <c r="G33" s="5" t="n">
+        <f aca="false">E33</f>
         <v>53</v>
       </c>
-      <c r="H33" s="6">
-        <f t="shared" si="5"/>
+      <c r="H33" s="6" t="n">
+        <f aca="false">F33</f>
         <v>37</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" ht="15">
-      <c r="B34" s="5">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="5" t="n">
         <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="5">
-        <f t="shared" si="6"/>
+      <c r="E34" s="5" t="n">
+        <f aca="false">E33+1</f>
         <v>54</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="4"/>
+      <c r="G34" s="5" t="n">
+        <f aca="false">E34</f>
         <v>54</v>
       </c>
-      <c r="H34" s="6">
-        <f t="shared" si="5"/>
+      <c r="H34" s="6" t="n">
+        <f aca="false">F34</f>
         <v>94</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" ht="15">
-      <c r="B35" s="5">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="5" t="n">
         <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2519,26 +2032,24 @@
       <c r="D35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="5">
-        <f t="shared" si="6"/>
+      <c r="E35" s="5" t="n">
+        <f aca="false">E34+1</f>
         <v>55</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="4"/>
+      <c r="G35" s="5" t="n">
+        <f aca="false">E35</f>
         <v>55</v>
       </c>
-      <c r="H35" s="6">
-        <f t="shared" si="5"/>
+      <c r="H35" s="6" t="n">
+        <f aca="false">F35</f>
         <v>38</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" ht="15">
-      <c r="B36" s="5">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5" t="n">
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2547,53 +2058,49 @@
       <c r="D36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="5">
-        <f t="shared" si="6"/>
+      <c r="E36" s="5" t="n">
+        <f aca="false">E35+1</f>
         <v>56</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="4"/>
+      <c r="G36" s="5" t="n">
+        <f aca="false">E36</f>
         <v>56</v>
       </c>
-      <c r="H36" s="6">
-        <f t="shared" si="5"/>
+      <c r="H36" s="6" t="n">
+        <f aca="false">F36</f>
         <v>42</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" ht="15">
-      <c r="B37" s="5">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="5" t="n">
         <v>46</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="5">
-        <f t="shared" si="6"/>
+      <c r="E37" s="5" t="n">
+        <f aca="false">E36+1</f>
         <v>57</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="4"/>
+      <c r="G37" s="5" t="n">
+        <f aca="false">E37</f>
         <v>57</v>
       </c>
-      <c r="H37" s="6">
-        <f t="shared" si="5"/>
+      <c r="H37" s="6" t="n">
+        <f aca="false">F37</f>
         <v>40</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" ht="15">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
         <v>86</v>
       </c>
@@ -2603,24 +2110,22 @@
       <c r="D38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="4"/>
+      <c r="G38" s="5" t="n">
+        <f aca="false">E38</f>
         <v>96</v>
       </c>
-      <c r="H38" s="6">
-        <f t="shared" si="5"/>
+      <c r="H38" s="6" t="n">
+        <f aca="false">F38</f>
         <v>126</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" ht="15">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
         <v>89</v>
       </c>
@@ -2630,51 +2135,47 @@
       <c r="D39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="4"/>
+      <c r="G39" s="5" t="n">
+        <f aca="false">E39</f>
         <v>45</v>
       </c>
-      <c r="H39" s="6">
-        <f t="shared" si="5"/>
+      <c r="H39" s="6" t="n">
+        <f aca="false">F39</f>
         <v>95</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" ht="15">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="5" t="n">
         <v>55</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="4"/>
+      <c r="G40" s="5" t="n">
+        <f aca="false">E40</f>
         <v>61</v>
       </c>
-      <c r="H40" s="6">
-        <f t="shared" si="5"/>
+      <c r="H40" s="6" t="n">
+        <f aca="false">F40</f>
         <v>43</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" ht="15">
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
@@ -2684,80 +2185,74 @@
       <c r="D41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="4"/>
+      <c r="G41" s="5" t="n">
+        <f aca="false">E41</f>
         <v>92</v>
       </c>
-      <c r="H41" s="6">
-        <f t="shared" si="5"/>
+      <c r="H41" s="6" t="n">
+        <f aca="false">F41</f>
         <v>124</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" ht="15">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="5" t="n">
         <v>66</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F42" s="5">
-        <f t="shared" ref="F42:F85" si="8">E42</f>
+      <c r="F42" s="5" t="n">
+        <f aca="false">E42</f>
         <v>8</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="4"/>
+      <c r="G42" s="5" t="n">
+        <f aca="false">E42</f>
         <v>8</v>
       </c>
-      <c r="H42" s="6">
-        <f t="shared" si="5"/>
+      <c r="H42" s="6" t="n">
+        <f aca="false">F42</f>
         <v>8</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" ht="15">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="5" t="n">
         <v>29</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="F43" s="5">
-        <f t="shared" si="8"/>
+      <c r="F43" s="5" t="n">
+        <f aca="false">E43</f>
         <v>32</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="4"/>
+      <c r="G43" s="5" t="n">
+        <f aca="false">E43</f>
         <v>32</v>
       </c>
-      <c r="H43" s="6">
-        <f t="shared" si="5"/>
+      <c r="H43" s="6" t="n">
+        <f aca="false">F43</f>
         <v>32</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" ht="15">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
         <v>101</v>
       </c>
@@ -2767,11 +2262,11 @@
       <c r="D44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F44" s="5">
-        <f t="shared" si="8"/>
+      <c r="F44" s="5" t="n">
+        <f aca="false">E44</f>
         <v>9</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -2780,14 +2275,12 @@
       <c r="H44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" ht="15">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="5" t="n">
         <v>58</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2797,14 +2290,12 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" ht="15">
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2814,14 +2305,12 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" ht="15">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="5" t="n">
         <v>14</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -2831,10 +2320,8 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" ht="30">
+    </row>
+    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
         <v>111</v>
       </c>
@@ -2848,14 +2335,12 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" ht="15">
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="5" t="n">
         <v>11</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2865,14 +2350,12 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" ht="15">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="5" t="n">
         <v>59</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2882,10 +2365,8 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" ht="15">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="s">
         <v>118</v>
       </c>
@@ -2899,10 +2380,8 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" ht="15">
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
         <v>121</v>
       </c>
@@ -2916,10 +2395,8 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" ht="15">
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
         <v>124</v>
       </c>
@@ -2933,10 +2410,8 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" ht="30">
+    </row>
+    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
         <v>127</v>
       </c>
@@ -2950,10 +2425,8 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" ht="28.5">
+    </row>
+    <row r="55" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
         <v>130</v>
       </c>
@@ -2967,8 +2440,8 @@
         <v>133</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">13 10</v>
+        <f aca="false">E55</f>
+        <v>13 10</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>134</v>
@@ -2976,40 +2449,36 @@
       <c r="H55" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" ht="15">
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="5" t="n">
         <v>76</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="F56" s="5">
-        <f t="shared" si="8"/>
+      <c r="F56" s="5" t="n">
+        <f aca="false">E56</f>
         <v>27</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" ht="15">
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="5" t="n">
         <v>5</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -3019,14 +2488,12 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" ht="15">
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -3036,14 +2503,12 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" ht="15">
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -3053,10 +2518,8 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" ht="15">
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
         <v>143</v>
       </c>
@@ -3070,14 +2533,12 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" ht="15">
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -3087,10 +2548,8 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" ht="15">
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
         <v>148</v>
       </c>
@@ -3104,14 +2563,12 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" ht="15">
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="5" t="n">
         <v>83</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -3121,10 +2578,8 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" ht="14.25">
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5" t="s">
         <v>153</v>
       </c>
@@ -3138,14 +2593,12 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" ht="14.25">
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -3155,14 +2608,12 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" ht="14.25">
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="5" t="n">
         <v>9</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -3172,14 +2623,12 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" ht="14.25">
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="5" t="n">
         <v>78</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -3189,14 +2638,12 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" ht="14.25">
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="5" t="n">
         <v>7</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -3206,10 +2653,8 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" ht="14.25">
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="s">
         <v>164</v>
       </c>
@@ -3223,37 +2668,33 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" ht="14.25">
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="5" t="n">
         <v>54</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="G70" s="5">
-        <f t="shared" si="4"/>
+      <c r="G70" s="5" t="n">
+        <f aca="false">E70</f>
         <v>91</v>
       </c>
-      <c r="H70" s="6">
-        <f t="shared" si="5"/>
+      <c r="H70" s="6" t="n">
+        <f aca="false">F70</f>
         <v>123</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" ht="14.25">
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="5" t="s">
         <v>169</v>
       </c>
@@ -3267,10 +2708,8 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" ht="19.5" customHeight="1">
+    </row>
+    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="5" t="s">
         <v>172</v>
       </c>
@@ -3280,24 +2719,22 @@
       <c r="D72" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="F72" s="5">
-        <f t="shared" si="8"/>
+      <c r="F72" s="5" t="n">
+        <f aca="false">E72</f>
         <v>13</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H72" s="6" t="str">
-        <f t="shared" ref="H72:H80" si="9">G72</f>
+        <f aca="false">G72</f>
         <v>CMD_HOME</v>
       </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" ht="14.25">
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="5" t="s">
         <v>176</v>
       </c>
@@ -3313,13 +2750,11 @@
         <v>175</v>
       </c>
       <c r="H73" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f aca="false">G73</f>
         <v>CMD_HOME</v>
       </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" ht="14.25">
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5" t="s">
         <v>179</v>
       </c>
@@ -3335,13 +2770,11 @@
         <v>182</v>
       </c>
       <c r="H74" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">32 CMD_LEFT</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" ht="14.25">
+        <f aca="false">G74</f>
+        <v>32 CMD_LEFT</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="5" t="s">
         <v>183</v>
       </c>
@@ -3357,13 +2790,11 @@
         <v>186</v>
       </c>
       <c r="H75" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f aca="false">G75</f>
         <v>CMD_END</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" ht="14.25">
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="5" t="s">
         <v>187</v>
       </c>
@@ -3379,13 +2810,11 @@
         <v>190</v>
       </c>
       <c r="H76" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f aca="false">G76</f>
         <v>CMD_DOWN</v>
       </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" ht="14.25">
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="5" t="s">
         <v>191</v>
       </c>
@@ -3401,13 +2830,11 @@
         <v>175</v>
       </c>
       <c r="H77" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f aca="false">G77</f>
         <v>CMD_HOME</v>
       </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" ht="14.25">
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="5" t="s">
         <v>194</v>
       </c>
@@ -3423,13 +2850,11 @@
         <v>197</v>
       </c>
       <c r="H78" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f aca="false">G78</f>
         <v>CMD_LEFT</v>
       </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" ht="14.25">
+    </row>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="5" t="s">
         <v>198</v>
       </c>
@@ -3439,24 +2864,22 @@
       <c r="D79" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F79" s="5">
-        <f t="shared" si="8"/>
+      <c r="F79" s="5" t="n">
+        <f aca="false">E79</f>
         <v>10</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>190</v>
       </c>
       <c r="H79" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f aca="false">G79</f>
         <v>CMD_DOWN</v>
       </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" ht="14.25">
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
         <v>201</v>
       </c>
@@ -3472,17 +2895,15 @@
         <v>204</v>
       </c>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f aca="false">G80</f>
         <v>CMD_RIGHT</v>
       </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" ht="14.25">
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="5" t="n">
         <v>77</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -3492,10 +2913,8 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" ht="14.25">
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="5" t="s">
         <v>207</v>
       </c>
@@ -3505,25 +2924,23 @@
       <c r="D82" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="F82" s="5">
-        <f t="shared" si="8"/>
+      <c r="F82" s="5" t="n">
+        <f aca="false">E82</f>
         <v>47</v>
       </c>
-      <c r="G82" s="5">
-        <f t="shared" ref="G74:G99" si="10">E82</f>
+      <c r="G82" s="5" t="n">
+        <f aca="false">E82</f>
         <v>47</v>
       </c>
-      <c r="H82" s="6">
-        <f t="shared" ref="H82:H99" si="11">F82</f>
+      <c r="H82" s="6" t="n">
+        <f aca="false">F82</f>
         <v>47</v>
       </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" ht="14.25">
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="5" t="s">
         <v>210</v>
       </c>
@@ -3533,25 +2950,23 @@
       <c r="D83" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F83" s="5">
-        <f t="shared" si="8"/>
+      <c r="F83" s="5" t="n">
+        <f aca="false">E83</f>
         <v>42</v>
       </c>
-      <c r="G83" s="5">
-        <f t="shared" si="10"/>
+      <c r="G83" s="5" t="n">
+        <f aca="false">E83</f>
         <v>42</v>
       </c>
-      <c r="H83" s="6">
-        <f t="shared" si="11"/>
+      <c r="H83" s="6" t="n">
+        <f aca="false">F83</f>
         <v>42</v>
       </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" ht="14.25">
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="5" t="s">
         <v>213</v>
       </c>
@@ -3561,53 +2976,49 @@
       <c r="D84" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="F84" s="5">
-        <f t="shared" si="8"/>
+      <c r="F84" s="5" t="n">
+        <f aca="false">E84</f>
         <v>45</v>
       </c>
-      <c r="G84" s="5">
-        <f t="shared" si="10"/>
+      <c r="G84" s="5" t="n">
+        <f aca="false">E84</f>
         <v>45</v>
       </c>
-      <c r="H84" s="6">
-        <f t="shared" si="11"/>
+      <c r="H84" s="6" t="n">
+        <f aca="false">F84</f>
         <v>45</v>
       </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" ht="14.25">
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="5" t="n">
         <v>79</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="F85" s="5">
-        <f t="shared" si="8"/>
+      <c r="F85" s="5" t="n">
+        <f aca="false">E85</f>
         <v>43</v>
       </c>
-      <c r="G85" s="5">
-        <f t="shared" si="10"/>
+      <c r="G85" s="5" t="n">
+        <f aca="false">E85</f>
         <v>43</v>
       </c>
-      <c r="H85" s="6">
-        <f t="shared" si="11"/>
+      <c r="H85" s="6" t="n">
+        <f aca="false">F85</f>
         <v>43</v>
       </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" ht="14.25">
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="5" t="s">
         <v>218</v>
       </c>
@@ -3621,122 +3032,112 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" ht="14.25">
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="5" t="n">
         <v>71</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="G87" s="5">
-        <f t="shared" si="10"/>
+      <c r="G87" s="5" t="n">
+        <f aca="false">E87</f>
         <v>46</v>
       </c>
-      <c r="H87" s="6">
-        <f t="shared" si="11"/>
+      <c r="H87" s="6" t="n">
+        <f aca="false">F87</f>
         <v>46</v>
       </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" ht="14.25">
+    </row>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="5" t="n">
         <v>70</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="G88" s="5">
-        <f t="shared" si="10"/>
+      <c r="G88" s="5" t="n">
+        <f aca="false">E88</f>
         <v>48</v>
       </c>
-      <c r="H88" s="6">
-        <f t="shared" si="11"/>
+      <c r="H88" s="6" t="n">
+        <f aca="false">F88</f>
         <v>48</v>
       </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" ht="14.25">
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="5" t="n">
         <v>69</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="5">
-        <f t="shared" ref="E75:E97" si="12">E88+1</f>
+      <c r="E89" s="5" t="n">
+        <f aca="false">E88+1</f>
         <v>49</v>
       </c>
-      <c r="F89" s="5">
-        <f t="shared" ref="F89:F97" si="13">F88+1</f>
+      <c r="F89" s="5" t="n">
+        <f aca="false">F88+1</f>
         <v>49</v>
       </c>
-      <c r="G89" s="5">
-        <f t="shared" si="10"/>
+      <c r="G89" s="5" t="n">
+        <f aca="false">E89</f>
         <v>49</v>
       </c>
-      <c r="H89" s="6">
-        <f t="shared" si="11"/>
+      <c r="H89" s="6" t="n">
+        <f aca="false">F89</f>
         <v>49</v>
       </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" ht="14.25">
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="5" t="n">
         <v>72</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E90" s="5">
-        <f t="shared" si="12"/>
+      <c r="E90" s="5" t="n">
+        <f aca="false">E89+1</f>
         <v>50</v>
       </c>
-      <c r="F90" s="5">
-        <f t="shared" si="13"/>
+      <c r="F90" s="5" t="n">
+        <f aca="false">F89+1</f>
         <v>50</v>
       </c>
-      <c r="G90" s="5">
-        <f t="shared" si="10"/>
+      <c r="G90" s="5" t="n">
+        <f aca="false">E90</f>
         <v>50</v>
       </c>
-      <c r="H90" s="6">
-        <f t="shared" si="11"/>
+      <c r="H90" s="6" t="n">
+        <f aca="false">F90</f>
         <v>50</v>
       </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" ht="14.25">
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="5" t="s">
         <v>229</v>
       </c>
@@ -3746,26 +3147,24 @@
       <c r="D91" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E91" s="5">
-        <f t="shared" si="12"/>
+      <c r="E91" s="5" t="n">
+        <f aca="false">E90+1</f>
         <v>51</v>
       </c>
-      <c r="F91" s="5">
-        <f t="shared" si="13"/>
+      <c r="F91" s="5" t="n">
+        <f aca="false">F90+1</f>
         <v>51</v>
       </c>
-      <c r="G91" s="5">
-        <f t="shared" si="10"/>
+      <c r="G91" s="5" t="n">
+        <f aca="false">E91</f>
         <v>51</v>
       </c>
-      <c r="H91" s="6">
-        <f t="shared" si="11"/>
+      <c r="H91" s="6" t="n">
+        <f aca="false">F91</f>
         <v>51</v>
       </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" ht="14.25">
+    </row>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="5" t="s">
         <v>232</v>
       </c>
@@ -3775,84 +3174,78 @@
       <c r="D92" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="5">
-        <f t="shared" si="12"/>
+      <c r="E92" s="5" t="n">
+        <f aca="false">E91+1</f>
         <v>52</v>
       </c>
-      <c r="F92" s="5">
-        <f t="shared" si="13"/>
+      <c r="F92" s="5" t="n">
+        <f aca="false">F91+1</f>
         <v>52</v>
       </c>
-      <c r="G92" s="5">
-        <f t="shared" si="10"/>
+      <c r="G92" s="5" t="n">
+        <f aca="false">E92</f>
         <v>52</v>
       </c>
-      <c r="H92" s="6">
-        <f t="shared" si="11"/>
+      <c r="H92" s="6" t="n">
+        <f aca="false">F92</f>
         <v>52</v>
       </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" ht="14.25">
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="5" t="n">
         <v>73</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E93" s="5">
-        <f t="shared" si="12"/>
+      <c r="E93" s="5" t="n">
+        <f aca="false">E92+1</f>
         <v>53</v>
       </c>
-      <c r="F93" s="5">
-        <f t="shared" si="13"/>
+      <c r="F93" s="5" t="n">
+        <f aca="false">F92+1</f>
         <v>53</v>
       </c>
-      <c r="G93" s="5">
-        <f t="shared" si="10"/>
+      <c r="G93" s="5" t="n">
+        <f aca="false">E93</f>
         <v>53</v>
       </c>
-      <c r="H93" s="6">
-        <f t="shared" si="11"/>
+      <c r="H93" s="6" t="n">
+        <f aca="false">F93</f>
         <v>53</v>
       </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" ht="14.25">
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="5" t="n">
         <v>74</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E94" s="5">
-        <f t="shared" si="12"/>
+      <c r="E94" s="5" t="n">
+        <f aca="false">E93+1</f>
         <v>54</v>
       </c>
-      <c r="F94" s="5">
-        <f t="shared" si="13"/>
+      <c r="F94" s="5" t="n">
+        <f aca="false">F93+1</f>
         <v>54</v>
       </c>
-      <c r="G94" s="5">
-        <f t="shared" si="10"/>
+      <c r="G94" s="5" t="n">
+        <f aca="false">E94</f>
         <v>54</v>
       </c>
-      <c r="H94" s="6">
-        <f t="shared" si="11"/>
+      <c r="H94" s="6" t="n">
+        <f aca="false">F94</f>
         <v>54</v>
       </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" ht="14.25">
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="5" t="s">
         <v>239</v>
       </c>
@@ -3862,55 +3255,51 @@
       <c r="D95" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E95" s="5">
-        <f t="shared" si="12"/>
+      <c r="E95" s="5" t="n">
+        <f aca="false">E94+1</f>
         <v>55</v>
       </c>
-      <c r="F95" s="5">
-        <f t="shared" si="13"/>
+      <c r="F95" s="5" t="n">
+        <f aca="false">F94+1</f>
         <v>55</v>
       </c>
-      <c r="G95" s="5">
-        <f t="shared" si="10"/>
+      <c r="G95" s="5" t="n">
+        <f aca="false">E95</f>
         <v>55</v>
       </c>
-      <c r="H95" s="6">
-        <f t="shared" si="11"/>
+      <c r="H95" s="6" t="n">
+        <f aca="false">F95</f>
         <v>55</v>
       </c>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" ht="14.25">
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="5" t="n">
         <v>75</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E96" s="5">
-        <f t="shared" si="12"/>
+      <c r="E96" s="5" t="n">
+        <f aca="false">E95+1</f>
         <v>56</v>
       </c>
-      <c r="F96" s="5">
-        <f t="shared" si="13"/>
+      <c r="F96" s="5" t="n">
+        <f aca="false">F95+1</f>
         <v>56</v>
       </c>
-      <c r="G96" s="5">
-        <f t="shared" si="10"/>
+      <c r="G96" s="5" t="n">
+        <f aca="false">E96</f>
         <v>56</v>
       </c>
-      <c r="H96" s="6">
-        <f t="shared" si="11"/>
+      <c r="H96" s="6" t="n">
+        <f aca="false">F96</f>
         <v>56</v>
       </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" ht="14.25">
+    </row>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="5" t="s">
         <v>244</v>
       </c>
@@ -3920,26 +3309,24 @@
       <c r="D97" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E97" s="5">
-        <f t="shared" si="12"/>
+      <c r="E97" s="5" t="n">
+        <f aca="false">E96+1</f>
         <v>57</v>
       </c>
-      <c r="F97" s="5">
-        <f t="shared" si="13"/>
+      <c r="F97" s="5" t="n">
+        <f aca="false">F96+1</f>
         <v>57</v>
       </c>
-      <c r="G97" s="5">
-        <f t="shared" si="10"/>
+      <c r="G97" s="5" t="n">
+        <f aca="false">E97</f>
         <v>57</v>
       </c>
-      <c r="H97" s="6">
-        <f t="shared" si="11"/>
+      <c r="H97" s="6" t="n">
+        <f aca="false">F97</f>
         <v>57</v>
       </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" ht="14.25">
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
         <v>247</v>
       </c>
@@ -3949,24 +3336,22 @@
       <c r="D98" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="G98" s="5">
-        <f t="shared" si="10"/>
+      <c r="G98" s="5" t="n">
+        <f aca="false">E98</f>
         <v>93</v>
       </c>
-      <c r="H98" s="6">
-        <f t="shared" si="11"/>
+      <c r="H98" s="6" t="n">
+        <f aca="false">F98</f>
         <v>125</v>
       </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" ht="14.25">
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
         <v>250</v>
       </c>
@@ -3976,105 +3361,97 @@
       <c r="D99" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="G99" s="5">
-        <f t="shared" si="10"/>
+      <c r="G99" s="5" t="n">
+        <f aca="false">E99</f>
         <v>59</v>
       </c>
-      <c r="H99" s="6">
-        <f t="shared" si="11"/>
+      <c r="H99" s="6" t="n">
+        <f aca="false">F99</f>
         <v>58</v>
       </c>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" ht="14.25">
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="5" t="n">
         <v>52</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="G100" s="5">
-        <f t="shared" ref="G100:G103" si="14">E100</f>
+      <c r="G100" s="5" t="n">
+        <f aca="false">E100</f>
         <v>39</v>
       </c>
-      <c r="H100" s="6">
-        <f t="shared" ref="H100:H103" si="15">F100</f>
+      <c r="H100" s="6" t="n">
+        <f aca="false">F100</f>
         <v>34</v>
       </c>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" ht="14.25">
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="5" t="n">
         <v>41</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="G101" s="5">
-        <f t="shared" si="14"/>
+      <c r="G101" s="5" t="n">
+        <f aca="false">E101</f>
         <v>44</v>
       </c>
-      <c r="H101" s="6">
-        <f t="shared" si="15"/>
+      <c r="H101" s="6" t="n">
+        <f aca="false">F101</f>
         <v>60</v>
       </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" ht="14.25">
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="5" t="n">
         <v>49</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="G102" s="5">
-        <f t="shared" si="14"/>
+      <c r="G102" s="5" t="n">
+        <f aca="false">E102</f>
         <v>46</v>
       </c>
-      <c r="H102" s="6">
-        <f t="shared" si="15"/>
+      <c r="H102" s="6" t="n">
+        <f aca="false">F102</f>
         <v>62</v>
       </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" ht="14.25">
+    </row>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="5" t="s">
         <v>259</v>
       </c>
@@ -4084,51 +3461,50 @@
       <c r="D103" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="G103" s="5">
-        <f t="shared" si="14"/>
+      <c r="G103" s="5" t="n">
+        <f aca="false">E103</f>
         <v>47</v>
       </c>
-      <c r="H103" s="6">
-        <f t="shared" si="15"/>
+      <c r="H103" s="6" t="n">
+        <f aca="false">F103</f>
         <v>63</v>
       </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="17.421875"/>
-    <col customWidth="1" min="5" max="5" width="20.8515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.85"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="7" t="s">
         <v>262</v>
       </c>
@@ -4136,7 +3512,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
         <v>263</v>
@@ -4148,7 +3524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
         <v>172</v>
       </c>
@@ -4162,7 +3538,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
@@ -4176,7 +3552,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
         <v>183</v>
       </c>
@@ -4190,7 +3566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
         <v>187</v>
       </c>
@@ -4204,7 +3580,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
@@ -4218,7 +3594,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
         <v>194</v>
       </c>
@@ -4232,7 +3608,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
@@ -4246,7 +3622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
         <v>201</v>
       </c>
@@ -4260,17 +3636,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="9" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4278,34 +3654,42 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="10.7109375"/>
-    <col customWidth="1" min="3" max="3" width="11.7109375"/>
-    <col customWidth="1" min="4" max="4" style="2" width="16.8515625"/>
-    <col customWidth="1" min="5" max="5" width="13.421875"/>
-    <col min="6" max="6" style="7" width="9.140625"/>
-    <col customWidth="1" min="7" max="7" style="7" width="12.28125"/>
-    <col customWidth="1" min="8" max="8" style="7" width="18.421875"/>
-    <col customWidth="1" min="9" max="9" style="7" width="16.28125"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="16.28"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
+    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -4318,1683 +3702,1315 @@
       <c r="E1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="B2" s="5">
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <f t="shared" ref="C2:C9" si="16">HEX2DEC(B2)</f>
+      <c r="C2" s="5" t="n">
+        <f aca="false">HEX2DEC(B2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" s="5">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <f t="shared" si="16"/>
+      <c r="C3" s="5" t="n">
+        <f aca="false">HEX2DEC(B3)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="B4" s="5">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <f t="shared" si="16"/>
+      <c r="C4" s="5" t="n">
+        <f aca="false">HEX2DEC(B4)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" s="5">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
-        <f t="shared" si="16"/>
+      <c r="C5" s="5" t="n">
+        <f aca="false">HEX2DEC(B5)</f>
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" s="5">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
-        <f t="shared" si="16"/>
+      <c r="C6" s="5" t="n">
+        <f aca="false">HEX2DEC(B6)</f>
         <v>5</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="B7" s="5">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <f t="shared" si="16"/>
+      <c r="C7" s="5" t="n">
+        <f aca="false">HEX2DEC(B7)</f>
         <v>6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="5">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" si="16"/>
+      <c r="C8" s="5" t="n">
+        <f aca="false">HEX2DEC(B8)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="5">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
-        <f t="shared" si="16"/>
+      <c r="C9" s="5" t="n">
+        <f aca="false">HEX2DEC(B9)</f>
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" ref="C10:C73" si="17">HEX2DEC(B10)</f>
+      <c r="C10" s="5" t="n">
+        <f aca="false">HEX2DEC(B10)</f>
         <v>10</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" ht="14.25">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="5">
-        <f t="shared" si="17"/>
+      <c r="C11" s="5" t="n">
+        <f aca="false">HEX2DEC(B11)</f>
         <v>11</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" ht="14.25">
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="5">
-        <f t="shared" si="17"/>
+      <c r="C12" s="5" t="n">
+        <f aca="false">HEX2DEC(B12)</f>
         <v>12</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" ht="14.25">
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" si="17"/>
+      <c r="C13" s="5" t="n">
+        <f aca="false">HEX2DEC(B13)</f>
         <v>13</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" ht="14.25">
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" si="17"/>
+      <c r="C14" s="5" t="n">
+        <f aca="false">HEX2DEC(B14)</f>
         <v>14</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="9" t="n">
         <v>126</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="5">
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="17"/>
+      <c r="C15" s="5" t="n">
+        <f aca="false">HEX2DEC(B15)</f>
         <v>17</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="5">
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="5">
-        <f t="shared" si="17"/>
+      <c r="C16" s="5" t="n">
+        <f aca="false">HEX2DEC(B16)</f>
         <v>18</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="B17" s="5">
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="17"/>
+      <c r="C17" s="5" t="n">
+        <f aca="false">HEX2DEC(B17)</f>
         <v>20</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="B18" s="5">
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
-        <f t="shared" si="17"/>
+      <c r="C18" s="5" t="n">
+        <f aca="false">HEX2DEC(B18)</f>
         <v>21</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="9" t="n">
         <v>81</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="9" t="n">
         <v>113</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="B19" s="5">
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" si="17"/>
+      <c r="C19" s="5" t="n">
+        <f aca="false">HEX2DEC(B19)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" ht="14.25">
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" si="17"/>
+      <c r="C20" s="5" t="n">
+        <f aca="false">HEX2DEC(B20)</f>
         <v>26</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="9" t="n">
         <v>122</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" ht="14.25">
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="5">
-        <f t="shared" si="17"/>
+      <c r="C21" s="5" t="n">
+        <f aca="false">HEX2DEC(B21)</f>
         <v>27</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="9" t="n">
         <v>83</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="9" t="n">
         <v>115</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" ht="14.25">
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="5">
-        <f t="shared" si="17"/>
+      <c r="C22" s="5" t="n">
+        <f aca="false">HEX2DEC(B22)</f>
         <v>28</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" ht="14.25">
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C23" s="5">
-        <f t="shared" si="17"/>
+      <c r="C23" s="5" t="n">
+        <f aca="false">HEX2DEC(B23)</f>
         <v>29</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="9" t="n">
         <v>87</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="9" t="n">
         <v>119</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" ht="14.25">
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" si="17"/>
+      <c r="C24" s="5" t="n">
+        <f aca="false">HEX2DEC(B24)</f>
         <v>30</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="B25" s="5">
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="C25" s="5">
-        <f t="shared" si="17"/>
+      <c r="C25" s="5" t="n">
+        <f aca="false">HEX2DEC(B25)</f>
         <v>33</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="9" t="n">
         <v>67</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="9" t="n">
         <v>99</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="B26" s="5">
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" si="17"/>
+      <c r="C26" s="5" t="n">
+        <f aca="false">HEX2DEC(B26)</f>
         <v>34</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="9" t="n">
         <v>88</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="B27" s="5">
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="C27" s="5">
-        <f t="shared" si="17"/>
+      <c r="C27" s="5" t="n">
+        <f aca="false">HEX2DEC(B27)</f>
         <v>35</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="B28" s="5">
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="C28" s="5">
-        <f t="shared" si="17"/>
+      <c r="C28" s="5" t="n">
+        <f aca="false">HEX2DEC(B28)</f>
         <v>36</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="B29" s="5">
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="C29" s="5">
-        <f t="shared" si="17"/>
+      <c r="C29" s="5" t="n">
+        <f aca="false">HEX2DEC(B29)</f>
         <v>37</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="B30" s="5">
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="C30" s="5">
-        <f t="shared" si="17"/>
+      <c r="C30" s="5" t="n">
+        <f aca="false">HEX2DEC(B30)</f>
         <v>38</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="B31" s="5">
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="C31" s="5">
-        <f t="shared" si="17"/>
+      <c r="C31" s="5" t="n">
+        <f aca="false">HEX2DEC(B31)</f>
         <v>41</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" ht="14.25">
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C32" s="5">
-        <f t="shared" si="17"/>
+      <c r="C32" s="5" t="n">
+        <f aca="false">HEX2DEC(B32)</f>
         <v>42</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="9" t="n">
         <v>86</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="9" t="n">
         <v>118</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" ht="14.25">
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C33" s="5">
-        <f t="shared" si="17"/>
+      <c r="C33" s="5" t="n">
+        <f aca="false">HEX2DEC(B33)</f>
         <v>43</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" ht="14.25">
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C34" s="5">
-        <f t="shared" si="17"/>
+      <c r="C34" s="5" t="n">
+        <f aca="false">HEX2DEC(B34)</f>
         <v>44</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="9" t="n">
         <v>116</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" ht="14.25">
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="5">
-        <f t="shared" si="17"/>
+      <c r="C35" s="5" t="n">
+        <f aca="false">HEX2DEC(B35)</f>
         <v>45</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="9" t="n">
         <v>82</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="9" t="n">
         <v>114</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" ht="14.25">
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C36" s="5">
-        <f t="shared" si="17"/>
+      <c r="C36" s="5" t="n">
+        <f aca="false">HEX2DEC(B36)</f>
         <v>46</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="B37" s="5">
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="C37" s="5">
-        <f t="shared" si="17"/>
+      <c r="C37" s="5" t="n">
+        <f aca="false">HEX2DEC(B37)</f>
         <v>49</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="9" t="n">
         <v>78</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="9" t="n">
         <v>110</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="B38" s="5">
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" si="17"/>
+      <c r="C38" s="5" t="n">
+        <f aca="false">HEX2DEC(B38)</f>
         <v>50</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="9" t="n">
         <v>66</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="9" t="n">
         <v>98</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="B39" s="5">
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="C39" s="5">
-        <f t="shared" si="17"/>
+      <c r="C39" s="5" t="n">
+        <f aca="false">HEX2DEC(B39)</f>
         <v>51</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="9" t="n">
         <v>72</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="9" t="n">
         <v>104</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="B40" s="5">
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="C40" s="5">
-        <f t="shared" si="17"/>
+      <c r="C40" s="5" t="n">
+        <f aca="false">HEX2DEC(B40)</f>
         <v>52</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="9" t="n">
         <v>103</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="B41" s="5">
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="C41" s="5">
-        <f t="shared" si="17"/>
+      <c r="C41" s="5" t="n">
+        <f aca="false">HEX2DEC(B41)</f>
         <v>53</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="9" t="n">
         <v>89</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="9" t="n">
         <v>121</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="B42" s="5">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="C42" s="5">
-        <f t="shared" si="17"/>
+      <c r="C42" s="5" t="n">
+        <f aca="false">HEX2DEC(B42)</f>
         <v>54</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="9" t="n">
         <v>94</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" ht="14.25">
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C43" s="5">
-        <f t="shared" si="17"/>
+      <c r="C43" s="5" t="n">
+        <f aca="false">HEX2DEC(B43)</f>
         <v>58</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="9" t="n">
         <v>109</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" ht="14.25">
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="5">
-        <f t="shared" si="17"/>
+      <c r="C44" s="5" t="n">
+        <f aca="false">HEX2DEC(B44)</f>
         <v>59</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="9" t="n">
         <v>74</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="9" t="n">
         <v>106</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" ht="14.25">
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C45" s="5">
-        <f t="shared" si="17"/>
+      <c r="C45" s="5" t="n">
+        <f aca="false">HEX2DEC(B45)</f>
         <v>60</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="9" t="n">
         <v>117</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" ht="14.25">
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="5">
-        <f t="shared" si="17"/>
+      <c r="C46" s="5" t="n">
+        <f aca="false">HEX2DEC(B46)</f>
         <v>61</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" ht="14.25">
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="5">
-        <f t="shared" si="17"/>
+      <c r="C47" s="5" t="n">
+        <f aca="false">HEX2DEC(B47)</f>
         <v>62</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="B48" s="5">
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="C48" s="5">
-        <f t="shared" si="17"/>
+      <c r="C48" s="5" t="n">
+        <f aca="false">HEX2DEC(B48)</f>
         <v>65</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="B49" s="5">
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="C49" s="5">
-        <f t="shared" si="17"/>
+      <c r="C49" s="5" t="n">
+        <f aca="false">HEX2DEC(B49)</f>
         <v>66</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="9" t="n">
         <v>107</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="B50" s="5">
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="C50" s="5">
-        <f t="shared" si="17"/>
+      <c r="C50" s="5" t="n">
+        <f aca="false">HEX2DEC(B50)</f>
         <v>67</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="9" t="n">
         <v>73</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="9" t="n">
         <v>105</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="B51" s="5">
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="C51" s="5">
-        <f t="shared" si="17"/>
+      <c r="C51" s="5" t="n">
+        <f aca="false">HEX2DEC(B51)</f>
         <v>68</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="B52" s="5">
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="C52" s="5">
-        <f t="shared" si="17"/>
+      <c r="C52" s="5" t="n">
+        <f aca="false">HEX2DEC(B52)</f>
         <v>69</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="B53" s="5">
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="C53" s="5">
-        <f t="shared" si="17"/>
+      <c r="C53" s="5" t="n">
+        <f aca="false">HEX2DEC(B53)</f>
         <v>70</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="B54" s="5">
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="C54" s="5">
-        <f t="shared" si="17"/>
+      <c r="C54" s="5" t="n">
+        <f aca="false">HEX2DEC(B54)</f>
         <v>73</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" ht="14.25">
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="5">
-        <f t="shared" si="17"/>
+      <c r="C55" s="5" t="n">
+        <f aca="false">HEX2DEC(B55)</f>
         <v>74</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" ht="14.25">
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C56" s="5">
-        <f t="shared" si="17"/>
+      <c r="C56" s="5" t="n">
+        <f aca="false">HEX2DEC(B56)</f>
         <v>75</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="9" t="n">
         <v>76</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="9" t="n">
         <v>108</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" ht="14.25">
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="5">
-        <f t="shared" si="17"/>
+      <c r="C57" s="5" t="n">
+        <f aca="false">HEX2DEC(B57)</f>
         <v>76</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" ht="14.25">
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="5">
-        <f t="shared" si="17"/>
+      <c r="C58" s="5" t="n">
+        <f aca="false">HEX2DEC(B58)</f>
         <v>77</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" ht="14.25">
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="5">
-        <f t="shared" si="17"/>
+      <c r="C59" s="5" t="n">
+        <f aca="false">HEX2DEC(B59)</f>
         <v>78</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="9" t="n">
         <v>95</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="B60" s="5">
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="C60" s="5">
-        <f t="shared" si="17"/>
+      <c r="C60" s="5" t="n">
+        <f aca="false">HEX2DEC(B60)</f>
         <v>82</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="B61" s="5">
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="C61" s="5">
-        <f t="shared" si="17"/>
+      <c r="C61" s="5" t="n">
+        <f aca="false">HEX2DEC(B61)</f>
         <v>84</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="9" t="n">
         <v>91</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="B62" s="5">
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="C62" s="5">
-        <f t="shared" si="17"/>
+      <c r="C62" s="5" t="n">
+        <f aca="false">HEX2DEC(B62)</f>
         <v>85</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="B63" s="5">
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="C63" s="5">
-        <f t="shared" si="17"/>
+      <c r="C63" s="5" t="n">
+        <f aca="false">HEX2DEC(B63)</f>
         <v>88</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="B64" s="5">
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="C64" s="5">
-        <f t="shared" si="17"/>
+      <c r="C64" s="5" t="n">
+        <f aca="false">HEX2DEC(B64)</f>
         <v>89</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" ht="14.25">
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="5">
-        <f t="shared" si="17"/>
+      <c r="C65" s="5" t="n">
+        <f aca="false">HEX2DEC(B65)</f>
         <v>90</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" ht="14.25">
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C66" s="5">
-        <f t="shared" si="17"/>
+      <c r="C66" s="5" t="n">
+        <f aca="false">HEX2DEC(B66)</f>
         <v>91</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="9" t="n">
         <v>93</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="9" t="n">
         <v>125</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" ht="14.25">
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="5">
-        <f t="shared" si="17"/>
+      <c r="C67" s="5" t="n">
+        <f aca="false">HEX2DEC(B67)</f>
         <v>93</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="9" t="n">
         <v>124</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="B68" s="5">
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="C68" s="5">
-        <f t="shared" si="17"/>
+      <c r="C68" s="5" t="n">
+        <f aca="false">HEX2DEC(B68)</f>
         <v>102</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="B69" s="5">
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="C69" s="5">
-        <f t="shared" si="17"/>
+      <c r="C69" s="5" t="n">
+        <f aca="false">HEX2DEC(B69)</f>
         <v>105</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" ht="14.25">
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="5">
-        <f t="shared" si="17"/>
+      <c r="C70" s="5" t="n">
+        <f aca="false">HEX2DEC(B70)</f>
         <v>107</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" ht="14.25">
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="5">
-        <f t="shared" si="17"/>
+      <c r="C71" s="5" t="n">
+        <f aca="false">HEX2DEC(B71)</f>
         <v>108</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="B72" s="5">
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="C72" s="5">
-        <f t="shared" si="17"/>
+      <c r="C72" s="5" t="n">
+        <f aca="false">HEX2DEC(B72)</f>
         <v>112</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="B73" s="5">
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="C73" s="5">
-        <f t="shared" si="17"/>
+      <c r="C73" s="5" t="n">
+        <f aca="false">HEX2DEC(B73)</f>
         <v>113</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" ht="14.25">
-      <c r="B74" s="5">
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="C74" s="5">
-        <f t="shared" ref="C74:C87" si="18">HEX2DEC(B74)</f>
+      <c r="C74" s="5" t="n">
+        <f aca="false">HEX2DEC(B74)</f>
         <v>114</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="B75" s="5">
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="C75" s="5">
-        <f t="shared" si="18"/>
+      <c r="C75" s="5" t="n">
+        <f aca="false">HEX2DEC(B75)</f>
         <v>115</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" ht="14.25">
-      <c r="B76" s="5">
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="C76" s="5">
-        <f t="shared" si="18"/>
+      <c r="C76" s="5" t="n">
+        <f aca="false">HEX2DEC(B76)</f>
         <v>116</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" ht="14.25">
-      <c r="B77" s="5">
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="C77" s="5">
-        <f t="shared" si="18"/>
+      <c r="C77" s="5" t="n">
+        <f aca="false">HEX2DEC(B77)</f>
         <v>117</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" ht="14.25">
-      <c r="B78" s="5">
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="C78" s="5">
-        <f t="shared" si="18"/>
+      <c r="C78" s="5" t="n">
+        <f aca="false">HEX2DEC(B78)</f>
         <v>118</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="B79" s="5">
+    </row>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="C79" s="5">
-        <f t="shared" si="18"/>
+      <c r="C79" s="5" t="n">
+        <f aca="false">HEX2DEC(B79)</f>
         <v>119</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="B80" s="5">
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="C80" s="5">
-        <f t="shared" si="18"/>
+      <c r="C80" s="5" t="n">
+        <f aca="false">HEX2DEC(B80)</f>
         <v>120</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" ht="14.25">
-      <c r="B81" s="5">
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="C81" s="5">
-        <f t="shared" si="18"/>
+      <c r="C81" s="5" t="n">
+        <f aca="false">HEX2DEC(B81)</f>
         <v>121</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" ht="14.25">
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C82" s="5">
-        <f t="shared" si="18"/>
+      <c r="C82" s="5" t="n">
+        <f aca="false">HEX2DEC(B82)</f>
         <v>122</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" ht="14.25">
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C83" s="5">
-        <f t="shared" si="18"/>
+      <c r="C83" s="5" t="n">
+        <f aca="false">HEX2DEC(B83)</f>
         <v>123</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" ht="14.25">
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C84" s="5">
-        <f t="shared" si="18"/>
+      <c r="C84" s="5" t="n">
+        <f aca="false">HEX2DEC(B84)</f>
         <v>124</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" ht="14.25">
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C85" s="5">
-        <f t="shared" si="18"/>
+      <c r="C85" s="5" t="n">
+        <f aca="false">HEX2DEC(B85)</f>
         <v>125</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" ht="14.25">
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="5">
-        <f t="shared" si="18"/>
+      <c r="C86" s="5" t="n">
+        <f aca="false">HEX2DEC(B86)</f>
         <v>126</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" ht="14.25">
-      <c r="B87" s="5">
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="C87" s="5">
-        <f t="shared" si="18"/>
+      <c r="C87" s="5" t="n">
+        <f aca="false">HEX2DEC(B87)</f>
         <v>131</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" ht="14.25">
-      <c r="D88" s="2"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" ht="14.25">
-      <c r="D89" s="2"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" ht="14.25">
-      <c r="D90" s="2"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" ht="14.25">
-      <c r="D91" s="2"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" ht="14.25">
-      <c r="D92" s="2"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" ht="14.25">
-      <c r="D93" s="2"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" ht="14.25">
-      <c r="D94" s="2"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" ht="14.25">
-      <c r="D95" s="2"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" ht="14.25">
-      <c r="D96" s="2"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" ht="14.25">
-      <c r="D97" s="2"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" ht="14.25">
-      <c r="D98" s="2"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-    </row>
-    <row r="99" ht="14.25">
-      <c r="D99" s="2"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" ht="14.25">
-      <c r="D100" s="2"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" ht="14.25">
-      <c r="D101" s="2"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="D102" s="2"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="D103" s="2"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="D104" s="2"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" ht="14.25">
-      <c r="D105" s="2"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/character-codes.xlsx
+++ b/docs/character-codes.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Key Codes" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Special" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sorted" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Key Codes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Special" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sorted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ANSI Esc Sequences" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t xml:space="preserve">KEY </t>
   </si>
@@ -33,13 +31,13 @@
     <t xml:space="preserve">BREAK CODE </t>
   </si>
   <si>
-    <t xml:space="preserve">ASCII</t>
+    <t>ASCII</t>
   </si>
   <si>
     <t xml:space="preserve">SHIFT + ASCII</t>
   </si>
   <si>
-    <t xml:space="preserve">CMD</t>
+    <t>CMD</t>
   </si>
   <si>
     <t xml:space="preserve">SHIFT + CMD</t>
@@ -363,7 +361,7 @@
     <t xml:space="preserve"> E0,1F </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,1F</t>
+    <t>E0,F0,1F</t>
   </si>
   <si>
     <t xml:space="preserve">L ALT </t>
@@ -384,7 +382,7 @@
     <t xml:space="preserve"> E0,14 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,14</t>
+    <t>E0,F0,14</t>
   </si>
   <si>
     <t xml:space="preserve">R GUI </t>
@@ -393,7 +391,7 @@
     <t xml:space="preserve"> E0,27 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,27</t>
+    <t>E0,F0,27</t>
   </si>
   <si>
     <t xml:space="preserve">R ALT </t>
@@ -402,7 +400,7 @@
     <t xml:space="preserve"> E0,11 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,11</t>
+    <t>E0,F0,11</t>
   </si>
   <si>
     <t xml:space="preserve"> APPS </t>
@@ -411,7 +409,7 @@
     <t xml:space="preserve"> E0,2F </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,2F</t>
+    <t>E0,F0,2F</t>
   </si>
   <si>
     <t xml:space="preserve">ENTER </t>
@@ -516,7 +514,7 @@
     <t xml:space="preserve"> F0,07 </t>
   </si>
   <si>
-    <t xml:space="preserve">SCROLL</t>
+    <t>SCROLL</t>
   </si>
   <si>
     <t xml:space="preserve"> 7E </t>
@@ -531,13 +529,13 @@
     <t xml:space="preserve"> FO,54 </t>
   </si>
   <si>
-    <t xml:space="preserve">INSERT</t>
+    <t>INSERT</t>
   </si>
   <si>
     <t xml:space="preserve">E0,70 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,70</t>
+    <t>E0,F0,70</t>
   </si>
   <si>
     <t xml:space="preserve"> HOME </t>
@@ -546,10 +544,10 @@
     <t xml:space="preserve">E0,6C </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMD_HOME</t>
+    <t>E0,F0,6C</t>
+  </si>
+  <si>
+    <t>CMD_HOME</t>
   </si>
   <si>
     <t xml:space="preserve">PG UP </t>
@@ -558,16 +556,16 @@
     <t xml:space="preserve">E0,7D </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,7D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
+    <t>E0,F0,7D</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
   <si>
     <t xml:space="preserve">E0,71 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,71</t>
+    <t>E0,F0,71</t>
   </si>
   <si>
     <t xml:space="preserve">32 CMD_LEFT</t>
@@ -579,10 +577,10 @@
     <t xml:space="preserve">E0,69 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMD_END</t>
+    <t>E0,F0,69</t>
+  </si>
+  <si>
+    <t>CMD_END</t>
   </si>
   <si>
     <t xml:space="preserve">PG DN </t>
@@ -591,10 +589,10 @@
     <t xml:space="preserve">E0,7A </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMD_DOWN</t>
+    <t>E0,F0,7A</t>
+  </si>
+  <si>
+    <t>CMD_DOWN</t>
   </si>
   <si>
     <t xml:space="preserve"> UP </t>
@@ -603,7 +601,7 @@
     <t xml:space="preserve">E0,75 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,75</t>
+    <t>E0,F0,75</t>
   </si>
   <si>
     <t xml:space="preserve"> LEFT </t>
@@ -612,10 +610,10 @@
     <t xml:space="preserve">E0,6B </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMD_LEFT</t>
+    <t>E0,F0,6B</t>
+  </si>
+  <si>
+    <t>CMD_LEFT</t>
   </si>
   <si>
     <t xml:space="preserve"> DOWN </t>
@@ -624,7 +622,7 @@
     <t xml:space="preserve">E0,72 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,72</t>
+    <t>E0,F0,72</t>
   </si>
   <si>
     <t xml:space="preserve">RIGHT </t>
@@ -633,10 +631,10 @@
     <t xml:space="preserve">E0,74 </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMD_RIGHT</t>
+    <t>E0,F0,74</t>
+  </si>
+  <si>
+    <t>CMD_RIGHT</t>
   </si>
   <si>
     <t xml:space="preserve"> NUM </t>
@@ -651,7 +649,7 @@
     <t xml:space="preserve">E0,4A </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,4A</t>
+    <t>E0,F0,4A</t>
   </si>
   <si>
     <t xml:space="preserve"> KP * </t>
@@ -684,7 +682,7 @@
     <t xml:space="preserve">E0,5A </t>
   </si>
   <si>
-    <t xml:space="preserve">E0,F0,5A</t>
+    <t>E0,F0,5A</t>
   </si>
   <si>
     <t xml:space="preserve"> KP . </t>
@@ -810,7 +808,7 @@
     <t xml:space="preserve"> F0,4A </t>
   </si>
   <si>
-    <t xml:space="preserve">Specials</t>
+    <t>Specials</t>
   </si>
   <si>
     <t xml:space="preserve">MAKE </t>
@@ -819,308 +817,2594 @@
     <t xml:space="preserve">MAKE CODE(DEC)</t>
   </si>
   <si>
-    <t xml:space="preserve">SHIFT+CMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7E</t>
+    <t>SHIFT+CMD</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Wikipedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some type Fe (C1 set element) ANSI escape sequences (not an exhaustive list) </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Abbr</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC N</t>
+  </si>
+  <si>
+    <t>0x8E</t>
+  </si>
+  <si>
+    <t>SS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Shift Two</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Select a single character from one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">alternative character sets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. SS2 selects the G2 character set, and SS3 selects the G3 character set.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> In a 7-bit environment, this is followed by one or more GL bytes (0x20–0x7F) specifying a character from that set.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: 9.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> In an 8-bit environment, these may instead be GR bytes (0xA0–0xFF).</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: 8.4 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC O</t>
+  </si>
+  <si>
+    <t>0x8F</t>
+  </si>
+  <si>
+    <t>SS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Shift Three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC P</t>
+  </si>
+  <si>
+    <t>0x90</t>
+  </si>
+  <si>
+    <t>DCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Control String</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Terminated by ST.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: 5.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Xterm's uses of this sequence include defining User-Defined Keys, and requesting or setting Termcap/Terminfo data.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC [</t>
+  </si>
+  <si>
+    <t>0x9B</t>
+  </si>
+  <si>
+    <t>CSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control Sequence Introducer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts most of the useful sequences, terminated by a byte in the range 0x40 through 0x7E.[14]: 5.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC \</t>
+  </si>
+  <si>
+    <t>0x9C</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String Terminator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminates strings in other controls.[14]: 8.3.143 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC ]</t>
+  </si>
+  <si>
+    <t>0x9D</t>
+  </si>
+  <si>
+    <t>OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating System Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts a control string for the operating system to use, terminated by ST.[14]: 8.3.89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC X</t>
+  </si>
+  <si>
+    <t>0x98</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of String</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Takes an argument of a string of text, terminated by ST.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: 5.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> The uses for these string control sequences are defined by the application</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: 8.3.2, 8.3.128 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> or privacy discipline.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: 8.3.94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> These functions are rarely implemented and the arguments are ignored by xterm.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Some </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Kermit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> clients allow the server to automatically execute Kermit commands on the client by embedding them in APC sequences; this is a potential security risk if the server is untrusted.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC ^</t>
+  </si>
+  <si>
+    <t>0x9E</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC _</t>
+  </si>
+  <si>
+    <t>0x9F</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Program Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSI Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support planned in VGAMiniKbd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> A </t>
+    </r>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Up</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Moves the cursor </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> (default </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">) cells in the given direction. If the cursor is already at the edge of the screen, this has no effect. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> B </t>
+    </r>
+  </si>
+  <si>
+    <t>CUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Down</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> C </t>
+    </r>
+  </si>
+  <si>
+    <t>CUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Forward</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> D </t>
+    </r>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Back</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> E </t>
+    </r>
+  </si>
+  <si>
+    <t>CNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Next Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves cursor to beginning of the line n (default 1) lines down. (not ANSI.SYS) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> F </t>
+    </r>
+  </si>
+  <si>
+    <t>CPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Previous Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves cursor to beginning of the line n (default 1) lines up. (not ANSI.SYS) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> G </t>
+    </r>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Horizontal Absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves the cursor to column n (default 1). (not ANSI.SYS) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> H </t>
+    </r>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor Position</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Moves the cursor to row </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, column </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. The values are 1-based, and default to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> (top left corner) if omitted. A sequence such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI ;5H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is a synonym for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI 1;5H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> as well as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI 17;H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is the same as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI 17H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI 17;1H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> J </t>
+    </r>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erase in Display</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Clears part of the screen. If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> (or missing), clear from cursor to end of screen. If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, clear from cursor to beginning of the screen. If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, clear entire screen (and moves cursor to upper left on DOS </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>ANSI.SYS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">). If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, clear entire screen and delete all lines saved in the scrollback buffer (this feature was added for </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>xterm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> and is supported by other terminal applications). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> K </t>
+    </r>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erase in Line</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Erases part of the line. If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> (or missing), clear from cursor to the end of the line. If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, clear from cursor to beginning of the line. If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, clear entire line. Cursor position does not change. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> S </t>
+    </r>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll whole page up by n (default 1) lines. New lines are added at the bottom. (not ANSI.SYS) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> T </t>
+    </r>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll whole page down by n (default 1) lines. New lines are added at the top. (not ANSI.SYS) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> f </t>
+    </r>
+  </si>
+  <si>
+    <t>HVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Vertical Position</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Same as CUP, but counts as a format effector function (like </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>CR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>LF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">) rather than an editor function (like CUD or CNL). This can lead to different handling in certain terminal modes.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF0000EE"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: Annex A </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">CSI </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve"> m </t>
+    </r>
+  </si>
+  <si>
+    <t>SGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Graphic Rendition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets colors and style of the characters following this code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSI 5i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX Port On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable aux serial port usually for local serial printer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSI 4i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX Port Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSI 6n</t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Status Report</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Reports the cursor position (CPR) by transmitting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="64"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>ESC[n;mR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, where </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is the row and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="64"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> is the column. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Aptos"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="10.000000"/>
+      <name val="Aptos"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
       <name val="Aptos"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Aptos"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Aptos"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="31">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="10" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B1:H103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="9.14"/>
+    <col customWidth="0" min="1" max="1" style="1" width="9.1400000000000006"/>
+    <col customWidth="1" min="2" max="2" style="2" width="10.58"/>
+    <col customWidth="0" min="3" max="3" style="2" width="9.1400000000000006"/>
+    <col customWidth="1" min="4" max="4" style="2" width="10.710000000000001"/>
+    <col customWidth="0" min="5" max="5" style="1" width="9.1400000000000006"/>
+    <col customWidth="1" min="6" max="6" style="1" width="12.01"/>
+    <col customWidth="1" min="7" max="7" style="1" width="13.140000000000001"/>
+    <col customWidth="1" min="8" max="8" style="3" width="12.710000000000001"/>
+    <col customWidth="0" min="9" max="1024" style="1" width="9.1400000000000006"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="28.5">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +3427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="15">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1153,128 +3437,128 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>65</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>97</v>
       </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">E2</f>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G9" si="0">E2</f>
         <v>65</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <f aca="false">F2</f>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H9" si="1">F2</f>
         <v>97</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="15">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>66</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <f aca="false">F2+1</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F10" si="2">F2+1</f>
         <v>98</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <f aca="false">E3</f>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <f aca="false">F3</f>
+      <c r="H3" s="6">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="15">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>67</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <f aca="false">F3+1</f>
+      <c r="F4" s="5">
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <f aca="false">E4</f>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <f aca="false">F4</f>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="15">
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <f aca="false">E4+1</f>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E10" si="3">E4+1</f>
         <v>68</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <f aca="false">F4+1</f>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <f aca="false">E5</f>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <f aca="false">F5</f>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="15">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <f aca="false">E5+1</f>
+      <c r="E6" s="5">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <f aca="false">F5+1</f>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <f aca="false">E6</f>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <f aca="false">F6</f>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1284,105 +3568,105 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="n">
-        <f aca="false">E6+1</f>
+      <c r="E7" s="5">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <f aca="false">F6+1</f>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <f aca="false">E7</f>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <f aca="false">F7</f>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <f aca="false">E7+1</f>
+      <c r="E8" s="5">
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <f aca="false">F7+1</f>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <f aca="false">E8</f>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <f aca="false">F8</f>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15">
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="5" t="n">
-        <f aca="false">E8+1</f>
+      <c r="E9" s="5">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <f aca="false">F8+1</f>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <f aca="false">E9</f>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <f aca="false">F9</f>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="15">
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="n">
-        <f aca="false">E9+1</f>
+      <c r="E10" s="5">
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <f aca="false">F9+1</f>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <f aca="false">E10</f>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G73" si="4">E10</f>
         <v>73</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <f aca="false">F10</f>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10:H70" si="5">F10</f>
         <v>105</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="15">
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1392,51 +3676,51 @@
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <f aca="false">E10+1</f>
+      <c r="E11" s="5">
+        <f t="shared" ref="E11:E74" si="6">E10+1</f>
         <v>74</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <f aca="false">F10+1</f>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F27" si="7">F10+1</f>
         <v>106</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <f aca="false">E11</f>
+      <c r="G11" s="5">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <f aca="false">F11</f>
+      <c r="H11" s="6">
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="15">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5" t="n">
-        <f aca="false">E11+1</f>
+      <c r="E12" s="5">
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <f aca="false">F11+1</f>
+      <c r="F12" s="5">
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <f aca="false">E12</f>
+      <c r="G12" s="5">
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <f aca="false">F12</f>
+      <c r="H12" s="6">
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="15">
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1446,24 +3730,24 @@
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="n">
-        <f aca="false">E12+1</f>
+      <c r="E13" s="5">
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <f aca="false">F12+1</f>
+      <c r="F13" s="5">
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
-      <c r="G13" s="5" t="n">
-        <f aca="false">E13</f>
+      <c r="G13" s="5">
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="H13" s="6" t="n">
-        <f aca="false">F13</f>
+      <c r="H13" s="6">
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="15">
       <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
@@ -1473,78 +3757,78 @@
       <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <f aca="false">E13+1</f>
+      <c r="E14" s="5">
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <f aca="false">F13+1</f>
+      <c r="F14" s="5">
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
-      <c r="G14" s="5" t="n">
-        <f aca="false">E14</f>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="H14" s="6" t="n">
-        <f aca="false">F14</f>
+      <c r="H14" s="6">
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="15">
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5" t="n">
-        <f aca="false">E14+1</f>
+      <c r="E15" s="5">
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <f aca="false">F14+1</f>
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <f aca="false">E15</f>
+      <c r="G15" s="5">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="H15" s="6" t="n">
-        <f aca="false">F15</f>
+      <c r="H15" s="6">
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="15">
       <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <f aca="false">E15+1</f>
+      <c r="E16" s="5">
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <f aca="false">F15+1</f>
+      <c r="F16" s="5">
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
-      <c r="G16" s="5" t="n">
-        <f aca="false">E16</f>
+      <c r="G16" s="5">
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="H16" s="6" t="n">
-        <f aca="false">F16</f>
+      <c r="H16" s="6">
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="15">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -1554,51 +3838,51 @@
       <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <f aca="false">E16+1</f>
+      <c r="E17" s="5">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <f aca="false">F16+1</f>
+      <c r="F17" s="5">
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="G17" s="5" t="n">
-        <f aca="false">E17</f>
+      <c r="G17" s="5">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="H17" s="6" t="n">
-        <f aca="false">F17</f>
+      <c r="H17" s="6">
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="15">
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <f aca="false">E17+1</f>
+      <c r="E18" s="5">
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <f aca="false">F17+1</f>
+      <c r="F18" s="5">
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
-      <c r="G18" s="5" t="n">
-        <f aca="false">E18</f>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="H18" s="6" t="n">
-        <f aca="false">F18</f>
+      <c r="H18" s="6">
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="15">
       <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1608,24 +3892,24 @@
       <c r="D19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <f aca="false">E18+1</f>
+      <c r="E19" s="5">
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <f aca="false">F18+1</f>
+      <c r="F19" s="5">
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
-      <c r="G19" s="5" t="n">
-        <f aca="false">E19</f>
+      <c r="G19" s="5">
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="H19" s="6" t="n">
-        <f aca="false">F19</f>
+      <c r="H19" s="6">
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="15">
       <c r="B20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1635,24 +3919,24 @@
       <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="n">
-        <f aca="false">E19+1</f>
+      <c r="E20" s="5">
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <f aca="false">F19+1</f>
+      <c r="F20" s="5">
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="G20" s="5" t="n">
-        <f aca="false">E20</f>
+      <c r="G20" s="5">
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="H20" s="6" t="n">
-        <f aca="false">F20</f>
+      <c r="H20" s="6">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="15">
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1662,24 +3946,24 @@
       <c r="D21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="5" t="n">
-        <f aca="false">E20+1</f>
+      <c r="E21" s="5">
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <f aca="false">F20+1</f>
+      <c r="F21" s="5">
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="G21" s="5" t="n">
-        <f aca="false">E21</f>
+      <c r="G21" s="5">
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="H21" s="6" t="n">
-        <f aca="false">F21</f>
+      <c r="H21" s="6">
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="15">
       <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
@@ -1689,24 +3973,24 @@
       <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="5" t="n">
-        <f aca="false">E21+1</f>
+      <c r="E22" s="5">
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="F22" s="5" t="n">
-        <f aca="false">F21+1</f>
+      <c r="F22" s="5">
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
-      <c r="G22" s="5" t="n">
-        <f aca="false">E22</f>
+      <c r="G22" s="5">
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="H22" s="6" t="n">
-        <f aca="false">F22</f>
+      <c r="H22" s="6">
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="15">
       <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
@@ -1716,24 +4000,24 @@
       <c r="D23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="5" t="n">
-        <f aca="false">E22+1</f>
+      <c r="E23" s="5">
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="F23" s="5" t="n">
-        <f aca="false">F22+1</f>
+      <c r="F23" s="5">
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
-      <c r="G23" s="5" t="n">
-        <f aca="false">E23</f>
+      <c r="G23" s="5">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="H23" s="6" t="n">
-        <f aca="false">F23</f>
+      <c r="H23" s="6">
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="15">
       <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
@@ -1743,78 +4027,78 @@
       <c r="D24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="5" t="n">
-        <f aca="false">E23+1</f>
+      <c r="E24" s="5">
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="F24" s="5" t="n">
-        <f aca="false">F23+1</f>
+      <c r="F24" s="5">
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
-      <c r="G24" s="5" t="n">
-        <f aca="false">E24</f>
+      <c r="G24" s="5">
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="H24" s="6" t="n">
-        <f aca="false">F24</f>
+      <c r="H24" s="6">
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="15">
       <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="5" t="n">
-        <f aca="false">E24+1</f>
+      <c r="E25" s="5">
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="F25" s="5" t="n">
-        <f aca="false">F24+1</f>
+      <c r="F25" s="5">
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="G25" s="5" t="n">
-        <f aca="false">E25</f>
+      <c r="G25" s="5">
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="H25" s="6" t="n">
-        <f aca="false">F25</f>
+      <c r="H25" s="6">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="15">
       <c r="B26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="5">
         <v>35</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="5" t="n">
-        <f aca="false">E25+1</f>
+      <c r="E26" s="5">
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="F26" s="5" t="n">
-        <f aca="false">F25+1</f>
+      <c r="F26" s="5">
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
-      <c r="G26" s="5" t="n">
-        <f aca="false">E26</f>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="H26" s="6" t="n">
-        <f aca="false">F26</f>
+      <c r="H26" s="6">
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="15">
       <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
@@ -1824,76 +4108,76 @@
       <c r="D27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="5" t="n">
-        <f aca="false">E26+1</f>
+      <c r="E27" s="5">
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="F27" s="5" t="n">
-        <f aca="false">F26+1</f>
+      <c r="F27" s="5">
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
-      <c r="G27" s="5" t="n">
-        <f aca="false">E27</f>
+      <c r="G27" s="5">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="H27" s="6" t="n">
-        <f aca="false">F27</f>
+      <c r="H27" s="6">
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="n">
+    <row r="28" ht="15">
+      <c r="B28" s="5">
         <v>0</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="5">
         <v>45</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="5">
         <v>48</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="5">
         <v>41</v>
       </c>
-      <c r="G28" s="5" t="n">
-        <f aca="false">E28</f>
+      <c r="G28" s="5">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="H28" s="6" t="n">
-        <f aca="false">F28</f>
+      <c r="H28" s="6">
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="n">
+    <row r="29" ht="15">
+      <c r="B29" s="5">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="5">
         <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="5" t="n">
-        <f aca="false">E28+1</f>
+      <c r="E29" s="5">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="5">
         <v>33</v>
       </c>
-      <c r="G29" s="5" t="n">
-        <f aca="false">E29</f>
+      <c r="G29" s="5">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="H29" s="6" t="n">
-        <f aca="false">F29</f>
+      <c r="H29" s="6">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="n">
+    <row r="30" ht="15">
+      <c r="B30" s="5">
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1902,76 +4186,76 @@
       <c r="D30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="5" t="n">
-        <f aca="false">E29+1</f>
+      <c r="E30" s="5">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="5">
         <v>64</v>
       </c>
-      <c r="G30" s="5" t="n">
-        <f aca="false">E30</f>
+      <c r="G30" s="5">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H30" s="6" t="n">
-        <f aca="false">F30</f>
+      <c r="H30" s="6">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="n">
+    <row r="31" ht="15">
+      <c r="B31" s="5">
         <v>3</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>26</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="5" t="n">
-        <f aca="false">E30+1</f>
+      <c r="E31" s="5">
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="5">
         <v>35</v>
       </c>
-      <c r="G31" s="5" t="n">
-        <f aca="false">E31</f>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="H31" s="6" t="n">
-        <f aca="false">F31</f>
+      <c r="H31" s="6">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="5" t="n">
+    <row r="32" ht="15">
+      <c r="B32" s="5">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="5">
         <v>25</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="5" t="n">
-        <f aca="false">E31+1</f>
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="5">
         <v>36</v>
       </c>
-      <c r="G32" s="5" t="n">
-        <f aca="false">E32</f>
+      <c r="G32" s="5">
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="H32" s="6" t="n">
-        <f aca="false">F32</f>
+      <c r="H32" s="6">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="5" t="n">
+    <row r="33" ht="15">
+      <c r="B33" s="5">
         <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1980,50 +4264,50 @@
       <c r="D33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="5" t="n">
-        <f aca="false">E32+1</f>
+      <c r="E33" s="5">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="5">
         <v>37</v>
       </c>
-      <c r="G33" s="5" t="n">
-        <f aca="false">E33</f>
+      <c r="G33" s="5">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="H33" s="6" t="n">
-        <f aca="false">F33</f>
+      <c r="H33" s="6">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="5" t="n">
+    <row r="34" ht="15">
+      <c r="B34" s="5">
         <v>6</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="5">
         <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="5" t="n">
-        <f aca="false">E33+1</f>
+      <c r="E34" s="5">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="5">
         <v>94</v>
       </c>
-      <c r="G34" s="5" t="n">
-        <f aca="false">E34</f>
+      <c r="G34" s="5">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="H34" s="6" t="n">
-        <f aca="false">F34</f>
+      <c r="H34" s="6">
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="5" t="n">
+    <row r="35" ht="15">
+      <c r="B35" s="5">
         <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2032,24 +4316,24 @@
       <c r="D35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="5" t="n">
-        <f aca="false">E34+1</f>
+      <c r="E35" s="5">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="5">
         <v>38</v>
       </c>
-      <c r="G35" s="5" t="n">
-        <f aca="false">E35</f>
+      <c r="G35" s="5">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="H35" s="6" t="n">
-        <f aca="false">F35</f>
+      <c r="H35" s="6">
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="5" t="n">
+    <row r="36" ht="15">
+      <c r="B36" s="5">
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2058,49 +4342,49 @@
       <c r="D36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="5" t="n">
-        <f aca="false">E35+1</f>
+      <c r="E36" s="5">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="5">
         <v>42</v>
       </c>
-      <c r="G36" s="5" t="n">
-        <f aca="false">E36</f>
+      <c r="G36" s="5">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="H36" s="6" t="n">
-        <f aca="false">F36</f>
+      <c r="H36" s="6">
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="n">
+    <row r="37" ht="15">
+      <c r="B37" s="5">
         <v>9</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="5">
         <v>46</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="5" t="n">
-        <f aca="false">E36+1</f>
+      <c r="E37" s="5">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="5">
         <v>40</v>
       </c>
-      <c r="G37" s="5" t="n">
-        <f aca="false">E37</f>
+      <c r="G37" s="5">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="H37" s="6" t="n">
-        <f aca="false">F37</f>
+      <c r="H37" s="6">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="15">
       <c r="B38" s="5" t="s">
         <v>86</v>
       </c>
@@ -2110,22 +4394,22 @@
       <c r="D38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="5">
         <v>96</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="5">
         <v>126</v>
       </c>
-      <c r="G38" s="5" t="n">
-        <f aca="false">E38</f>
+      <c r="G38" s="5">
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H38" s="6" t="n">
-        <f aca="false">F38</f>
+      <c r="H38" s="6">
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="15">
       <c r="B39" s="5" t="s">
         <v>89</v>
       </c>
@@ -2135,47 +4419,47 @@
       <c r="D39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39" s="5">
         <v>45</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="5">
         <v>95</v>
       </c>
-      <c r="G39" s="5" t="n">
-        <f aca="false">E39</f>
+      <c r="G39" s="5">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="H39" s="6" t="n">
-        <f aca="false">F39</f>
+      <c r="H39" s="6">
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="15">
       <c r="B40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="5">
         <v>55</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="5">
         <v>61</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="5">
         <v>43</v>
       </c>
-      <c r="G40" s="5" t="n">
-        <f aca="false">E40</f>
+      <c r="G40" s="5">
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="H40" s="6" t="n">
-        <f aca="false">F40</f>
+      <c r="H40" s="6">
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="15">
       <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
@@ -2185,74 +4469,74 @@
       <c r="D41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="5">
         <v>92</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="5">
         <v>124</v>
       </c>
-      <c r="G41" s="5" t="n">
-        <f aca="false">E41</f>
+      <c r="G41" s="5">
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="H41" s="6" t="n">
-        <f aca="false">F41</f>
+      <c r="H41" s="6">
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="15">
       <c r="B42" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="5">
         <v>66</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42" s="5">
         <v>8</v>
       </c>
-      <c r="F42" s="5" t="n">
-        <f aca="false">E42</f>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:F85" si="8">E42</f>
         <v>8</v>
       </c>
-      <c r="G42" s="5" t="n">
-        <f aca="false">E42</f>
+      <c r="G42" s="5">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H42" s="6" t="n">
-        <f aca="false">F42</f>
+      <c r="H42" s="6">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="15">
       <c r="B43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="5">
         <v>29</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="5">
         <v>32</v>
       </c>
-      <c r="F43" s="5" t="n">
-        <f aca="false">E43</f>
+      <c r="F43" s="5">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="G43" s="5" t="n">
-        <f aca="false">E43</f>
+      <c r="G43" s="5">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="H43" s="6" t="n">
-        <f aca="false">F43</f>
+      <c r="H43" s="6">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" ht="15">
       <c r="B44" s="5" t="s">
         <v>101</v>
       </c>
@@ -2262,11 +4546,11 @@
       <c r="D44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44" s="5">
         <v>9</v>
       </c>
-      <c r="F44" s="5" t="n">
-        <f aca="false">E44</f>
+      <c r="F44" s="5">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -2276,11 +4560,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" ht="15">
       <c r="B45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="5">
         <v>58</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2291,11 +4575,11 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" ht="15">
       <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="5">
         <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2306,11 +4590,11 @@
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" ht="15">
       <c r="B47" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="5">
         <v>14</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -2321,7 +4605,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" ht="30">
       <c r="B48" s="5" t="s">
         <v>111</v>
       </c>
@@ -2336,11 +4620,11 @@
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" ht="15">
       <c r="B49" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="5">
         <v>11</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2351,11 +4635,11 @@
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" ht="15">
       <c r="B50" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="5">
         <v>59</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2366,7 +4650,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" ht="15">
       <c r="B51" s="5" t="s">
         <v>118</v>
       </c>
@@ -2381,7 +4665,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" ht="15">
       <c r="B52" s="5" t="s">
         <v>121</v>
       </c>
@@ -2396,7 +4680,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" ht="15">
       <c r="B53" s="5" t="s">
         <v>124</v>
       </c>
@@ -2411,7 +4695,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" ht="30">
       <c r="B54" s="5" t="s">
         <v>127</v>
       </c>
@@ -2426,7 +4710,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" ht="28.5">
       <c r="B55" s="5" t="s">
         <v>130</v>
       </c>
@@ -2440,8 +4724,8 @@
         <v>133</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f aca="false">E55</f>
-        <v>13 10</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">13 10</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>134</v>
@@ -2450,35 +4734,35 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" ht="15">
       <c r="B56" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" s="5">
         <v>76</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56" s="5">
         <v>27</v>
       </c>
-      <c r="F56" s="5" t="n">
-        <f aca="false">E56</f>
+      <c r="F56" s="5">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="G56" s="5">
         <v>27</v>
       </c>
-      <c r="H56" s="5" t="n">
+      <c r="H56" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" ht="15">
       <c r="B57" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="5">
         <v>5</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -2489,11 +4773,11 @@
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" ht="15">
       <c r="B58" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="5">
         <v>6</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -2504,11 +4788,11 @@
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" ht="15">
       <c r="B59" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="5">
         <v>4</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -2519,7 +4803,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" ht="15">
       <c r="B60" s="5" t="s">
         <v>143</v>
       </c>
@@ -2534,11 +4818,11 @@
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" ht="15">
       <c r="B61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="5">
         <v>3</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -2549,7 +4833,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" ht="15">
       <c r="B62" s="5" t="s">
         <v>148</v>
       </c>
@@ -2564,11 +4848,11 @@
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" ht="15">
       <c r="B63" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="5">
         <v>83</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2579,7 +4863,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" ht="14.25">
       <c r="B64" s="5" t="s">
         <v>153</v>
       </c>
@@ -2594,11 +4878,11 @@
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" ht="14.25">
       <c r="B65" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -2609,11 +4893,11 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" ht="14.25">
       <c r="B66" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="5">
         <v>9</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -2624,11 +4908,11 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" ht="14.25">
       <c r="B67" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="5">
         <v>78</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -2639,11 +4923,11 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" ht="14.25">
       <c r="B68" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" s="5">
         <v>7</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -2654,7 +4938,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" ht="14.25">
       <c r="B69" s="5" t="s">
         <v>164</v>
       </c>
@@ -2669,32 +4953,32 @@
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" ht="14.25">
       <c r="B70" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" s="5">
         <v>54</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70" s="5">
         <v>91</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="5">
         <v>123</v>
       </c>
-      <c r="G70" s="5" t="n">
-        <f aca="false">E70</f>
+      <c r="G70" s="5">
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="H70" s="6" t="n">
-        <f aca="false">F70</f>
+      <c r="H70" s="6">
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" ht="14.25">
       <c r="B71" s="5" t="s">
         <v>169</v>
       </c>
@@ -2709,7 +4993,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="19.5" customHeight="1">
       <c r="B72" s="5" t="s">
         <v>172</v>
       </c>
@@ -2719,22 +5003,22 @@
       <c r="D72" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E72" s="5">
         <v>13</v>
       </c>
-      <c r="F72" s="5" t="n">
-        <f aca="false">E72</f>
+      <c r="F72" s="5">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>175</v>
       </c>
       <c r="H72" s="6" t="str">
-        <f aca="false">G72</f>
+        <f t="shared" ref="H72:H80" si="9">G72</f>
         <v>CMD_HOME</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" ht="14.25">
       <c r="B73" s="5" t="s">
         <v>176</v>
       </c>
@@ -2750,11 +5034,11 @@
         <v>175</v>
       </c>
       <c r="H73" s="6" t="str">
-        <f aca="false">G73</f>
+        <f t="shared" si="9"/>
         <v>CMD_HOME</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" ht="14.25">
       <c r="B74" s="5" t="s">
         <v>179</v>
       </c>
@@ -2770,11 +5054,11 @@
         <v>182</v>
       </c>
       <c r="H74" s="6" t="str">
-        <f aca="false">G74</f>
-        <v>32 CMD_LEFT</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">32 CMD_LEFT</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
       <c r="B75" s="5" t="s">
         <v>183</v>
       </c>
@@ -2790,11 +5074,11 @@
         <v>186</v>
       </c>
       <c r="H75" s="6" t="str">
-        <f aca="false">G75</f>
+        <f t="shared" si="9"/>
         <v>CMD_END</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" ht="14.25">
       <c r="B76" s="5" t="s">
         <v>187</v>
       </c>
@@ -2810,11 +5094,11 @@
         <v>190</v>
       </c>
       <c r="H76" s="6" t="str">
-        <f aca="false">G76</f>
+        <f t="shared" si="9"/>
         <v>CMD_DOWN</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" ht="14.25">
       <c r="B77" s="5" t="s">
         <v>191</v>
       </c>
@@ -2830,11 +5114,11 @@
         <v>175</v>
       </c>
       <c r="H77" s="6" t="str">
-        <f aca="false">G77</f>
+        <f t="shared" si="9"/>
         <v>CMD_HOME</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" ht="14.25">
       <c r="B78" s="5" t="s">
         <v>194</v>
       </c>
@@ -2850,11 +5134,11 @@
         <v>197</v>
       </c>
       <c r="H78" s="6" t="str">
-        <f aca="false">G78</f>
+        <f t="shared" si="9"/>
         <v>CMD_LEFT</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" ht="14.25">
       <c r="B79" s="5" t="s">
         <v>198</v>
       </c>
@@ -2864,22 +5148,22 @@
       <c r="D79" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="5" t="n">
+      <c r="E79" s="5">
         <v>10</v>
       </c>
-      <c r="F79" s="5" t="n">
-        <f aca="false">E79</f>
+      <c r="F79" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>190</v>
       </c>
       <c r="H79" s="6" t="str">
-        <f aca="false">G79</f>
+        <f t="shared" si="9"/>
         <v>CMD_DOWN</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" ht="14.25">
       <c r="B80" s="5" t="s">
         <v>201</v>
       </c>
@@ -2895,15 +5179,15 @@
         <v>204</v>
       </c>
       <c r="H80" s="6" t="str">
-        <f aca="false">G80</f>
+        <f t="shared" si="9"/>
         <v>CMD_RIGHT</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" ht="14.25">
       <c r="B81" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="5">
         <v>77</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -2914,7 +5198,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" ht="14.25">
       <c r="B82" s="5" t="s">
         <v>207</v>
       </c>
@@ -2924,23 +5208,23 @@
       <c r="D82" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E82" s="5" t="n">
+      <c r="E82" s="5">
         <v>47</v>
       </c>
-      <c r="F82" s="5" t="n">
-        <f aca="false">E82</f>
+      <c r="F82" s="5">
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="G82" s="5" t="n">
-        <f aca="false">E82</f>
+      <c r="G82" s="5">
+        <f t="shared" ref="G74:G99" si="10">E82</f>
         <v>47</v>
       </c>
-      <c r="H82" s="6" t="n">
-        <f aca="false">F82</f>
+      <c r="H82" s="6">
+        <f t="shared" ref="H82:H99" si="11">F82</f>
         <v>47</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" ht="14.25">
       <c r="B83" s="5" t="s">
         <v>210</v>
       </c>
@@ -2950,23 +5234,23 @@
       <c r="D83" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E83" s="5" t="n">
+      <c r="E83" s="5">
         <v>42</v>
       </c>
-      <c r="F83" s="5" t="n">
-        <f aca="false">E83</f>
+      <c r="F83" s="5">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="G83" s="5" t="n">
-        <f aca="false">E83</f>
+      <c r="G83" s="5">
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="H83" s="6" t="n">
-        <f aca="false">F83</f>
+      <c r="H83" s="6">
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" ht="14.25">
       <c r="B84" s="5" t="s">
         <v>213</v>
       </c>
@@ -2976,49 +5260,49 @@
       <c r="D84" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E84" s="5" t="n">
+      <c r="E84" s="5">
         <v>45</v>
       </c>
-      <c r="F84" s="5" t="n">
-        <f aca="false">E84</f>
+      <c r="F84" s="5">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="G84" s="5" t="n">
-        <f aca="false">E84</f>
+      <c r="G84" s="5">
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="H84" s="6" t="n">
-        <f aca="false">F84</f>
+      <c r="H84" s="6">
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" ht="14.25">
       <c r="B85" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="5" t="n">
+      <c r="C85" s="5">
         <v>79</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="5" t="n">
+      <c r="E85" s="5">
         <v>43</v>
       </c>
-      <c r="F85" s="5" t="n">
-        <f aca="false">E85</f>
+      <c r="F85" s="5">
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="G85" s="5" t="n">
-        <f aca="false">E85</f>
+      <c r="G85" s="5">
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="H85" s="6" t="n">
-        <f aca="false">F85</f>
+      <c r="H85" s="6">
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" ht="14.25">
       <c r="B86" s="5" t="s">
         <v>218</v>
       </c>
@@ -3033,111 +5317,111 @@
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" ht="14.25">
       <c r="B87" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C87" s="5" t="n">
+      <c r="C87" s="5">
         <v>71</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E87" s="5" t="n">
+      <c r="E87" s="5">
         <v>46</v>
       </c>
-      <c r="F87" s="5" t="n">
+      <c r="F87" s="5">
         <v>46</v>
       </c>
-      <c r="G87" s="5" t="n">
-        <f aca="false">E87</f>
+      <c r="G87" s="5">
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="H87" s="6" t="n">
-        <f aca="false">F87</f>
+      <c r="H87" s="6">
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" ht="14.25">
       <c r="B88" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C88" s="5" t="n">
+      <c r="C88" s="5">
         <v>70</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E88" s="5" t="n">
+      <c r="E88" s="5">
         <v>48</v>
       </c>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="5">
         <v>48</v>
       </c>
-      <c r="G88" s="5" t="n">
-        <f aca="false">E88</f>
+      <c r="G88" s="5">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="H88" s="6" t="n">
-        <f aca="false">F88</f>
+      <c r="H88" s="6">
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" ht="14.25">
       <c r="B89" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C89" s="5" t="n">
+      <c r="C89" s="5">
         <v>69</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="5" t="n">
-        <f aca="false">E88+1</f>
+      <c r="E89" s="5">
+        <f t="shared" ref="E75:E97" si="12">E88+1</f>
         <v>49</v>
       </c>
-      <c r="F89" s="5" t="n">
-        <f aca="false">F88+1</f>
+      <c r="F89" s="5">
+        <f t="shared" ref="F89:F97" si="13">F88+1</f>
         <v>49</v>
       </c>
-      <c r="G89" s="5" t="n">
-        <f aca="false">E89</f>
+      <c r="G89" s="5">
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="H89" s="6" t="n">
-        <f aca="false">F89</f>
+      <c r="H89" s="6">
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" ht="14.25">
       <c r="B90" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C90" s="5" t="n">
+      <c r="C90" s="5">
         <v>72</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E90" s="5" t="n">
-        <f aca="false">E89+1</f>
+      <c r="E90" s="5">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="F90" s="5" t="n">
-        <f aca="false">F89+1</f>
+      <c r="F90" s="5">
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="G90" s="5" t="n">
-        <f aca="false">E90</f>
+      <c r="G90" s="5">
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="H90" s="6" t="n">
-        <f aca="false">F90</f>
+      <c r="H90" s="6">
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" ht="14.25">
       <c r="B91" s="5" t="s">
         <v>229</v>
       </c>
@@ -3147,24 +5431,24 @@
       <c r="D91" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E91" s="5" t="n">
-        <f aca="false">E90+1</f>
+      <c r="E91" s="5">
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="F91" s="5" t="n">
-        <f aca="false">F90+1</f>
+      <c r="F91" s="5">
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
-      <c r="G91" s="5" t="n">
-        <f aca="false">E91</f>
+      <c r="G91" s="5">
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="H91" s="6" t="n">
-        <f aca="false">F91</f>
+      <c r="H91" s="6">
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" ht="14.25">
       <c r="B92" s="5" t="s">
         <v>232</v>
       </c>
@@ -3174,78 +5458,78 @@
       <c r="D92" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E92" s="5" t="n">
-        <f aca="false">E91+1</f>
+      <c r="E92" s="5">
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
-      <c r="F92" s="5" t="n">
-        <f aca="false">F91+1</f>
+      <c r="F92" s="5">
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="G92" s="5" t="n">
-        <f aca="false">E92</f>
+      <c r="G92" s="5">
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="H92" s="6" t="n">
-        <f aca="false">F92</f>
+      <c r="H92" s="6">
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" ht="14.25">
       <c r="B93" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" s="5">
         <v>73</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E93" s="5" t="n">
-        <f aca="false">E92+1</f>
+      <c r="E93" s="5">
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
-      <c r="F93" s="5" t="n">
-        <f aca="false">F92+1</f>
+      <c r="F93" s="5">
+        <f t="shared" si="13"/>
         <v>53</v>
       </c>
-      <c r="G93" s="5" t="n">
-        <f aca="false">E93</f>
+      <c r="G93" s="5">
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="H93" s="6" t="n">
-        <f aca="false">F93</f>
+      <c r="H93" s="6">
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" ht="14.25">
       <c r="B94" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="5">
         <v>74</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E94" s="5" t="n">
-        <f aca="false">E93+1</f>
+      <c r="E94" s="5">
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
-      <c r="F94" s="5" t="n">
-        <f aca="false">F93+1</f>
+      <c r="F94" s="5">
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="G94" s="5" t="n">
-        <f aca="false">E94</f>
+      <c r="G94" s="5">
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="H94" s="6" t="n">
-        <f aca="false">F94</f>
+      <c r="H94" s="6">
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" ht="14.25">
       <c r="B95" s="5" t="s">
         <v>239</v>
       </c>
@@ -3255,51 +5539,51 @@
       <c r="D95" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E95" s="5" t="n">
-        <f aca="false">E94+1</f>
+      <c r="E95" s="5">
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="F95" s="5" t="n">
-        <f aca="false">F94+1</f>
+      <c r="F95" s="5">
+        <f t="shared" si="13"/>
         <v>55</v>
       </c>
-      <c r="G95" s="5" t="n">
-        <f aca="false">E95</f>
+      <c r="G95" s="5">
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="H95" s="6" t="n">
-        <f aca="false">F95</f>
+      <c r="H95" s="6">
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" ht="14.25">
       <c r="B96" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C96" s="5" t="n">
+      <c r="C96" s="5">
         <v>75</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E96" s="5" t="n">
-        <f aca="false">E95+1</f>
+      <c r="E96" s="5">
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="F96" s="5" t="n">
-        <f aca="false">F95+1</f>
+      <c r="F96" s="5">
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="G96" s="5" t="n">
-        <f aca="false">E96</f>
+      <c r="G96" s="5">
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="H96" s="6" t="n">
-        <f aca="false">F96</f>
+      <c r="H96" s="6">
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" ht="14.25">
       <c r="B97" s="5" t="s">
         <v>244</v>
       </c>
@@ -3309,24 +5593,24 @@
       <c r="D97" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E97" s="5" t="n">
-        <f aca="false">E96+1</f>
+      <c r="E97" s="5">
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="F97" s="5" t="n">
-        <f aca="false">F96+1</f>
+      <c r="F97" s="5">
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
-      <c r="G97" s="5" t="n">
-        <f aca="false">E97</f>
+      <c r="G97" s="5">
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="H97" s="6" t="n">
-        <f aca="false">F97</f>
+      <c r="H97" s="6">
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" ht="14.25">
       <c r="B98" s="5" t="s">
         <v>247</v>
       </c>
@@ -3336,22 +5620,22 @@
       <c r="D98" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E98" s="5" t="n">
+      <c r="E98" s="5">
         <v>93</v>
       </c>
-      <c r="F98" s="5" t="n">
+      <c r="F98" s="5">
         <v>125</v>
       </c>
-      <c r="G98" s="5" t="n">
-        <f aca="false">E98</f>
+      <c r="G98" s="5">
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="H98" s="6" t="n">
-        <f aca="false">F98</f>
+      <c r="H98" s="6">
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" ht="14.25">
       <c r="B99" s="5" t="s">
         <v>250</v>
       </c>
@@ -3361,97 +5645,97 @@
       <c r="D99" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="5" t="n">
+      <c r="E99" s="5">
         <v>59</v>
       </c>
-      <c r="F99" s="5" t="n">
+      <c r="F99" s="5">
         <v>58</v>
       </c>
-      <c r="G99" s="5" t="n">
-        <f aca="false">E99</f>
+      <c r="G99" s="5">
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
-      <c r="H99" s="6" t="n">
-        <f aca="false">F99</f>
+      <c r="H99" s="6">
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" ht="14.25">
       <c r="B100" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="5" t="n">
+      <c r="C100" s="5">
         <v>52</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E100" s="5" t="n">
+      <c r="E100" s="5">
         <v>39</v>
       </c>
-      <c r="F100" s="5" t="n">
+      <c r="F100" s="5">
         <v>34</v>
       </c>
-      <c r="G100" s="5" t="n">
-        <f aca="false">E100</f>
+      <c r="G100" s="5">
+        <f t="shared" ref="G100:G103" si="14">E100</f>
         <v>39</v>
       </c>
-      <c r="H100" s="6" t="n">
-        <f aca="false">F100</f>
+      <c r="H100" s="6">
+        <f t="shared" ref="H100:H103" si="15">F100</f>
         <v>34</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" ht="14.25">
       <c r="B101" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="5" t="n">
+      <c r="C101" s="5">
         <v>41</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E101" s="5" t="n">
+      <c r="E101" s="5">
         <v>44</v>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="5">
         <v>60</v>
       </c>
-      <c r="G101" s="5" t="n">
-        <f aca="false">E101</f>
+      <c r="G101" s="5">
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
-      <c r="H101" s="6" t="n">
-        <f aca="false">F101</f>
+      <c r="H101" s="6">
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" ht="14.25">
       <c r="B102" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="5" t="n">
+      <c r="C102" s="5">
         <v>49</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E102" s="5" t="n">
+      <c r="E102" s="5">
         <v>46</v>
       </c>
-      <c r="F102" s="5" t="n">
+      <c r="F102" s="5">
         <v>62</v>
       </c>
-      <c r="G102" s="5" t="n">
-        <f aca="false">E102</f>
+      <c r="G102" s="5">
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="H102" s="6" t="n">
-        <f aca="false">F102</f>
+      <c r="H102" s="6">
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" ht="14.25">
       <c r="B103" s="5" t="s">
         <v>259</v>
       </c>
@@ -3461,50 +5745,47 @@
       <c r="D103" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E103" s="5" t="n">
+      <c r="E103" s="5">
         <v>47</v>
       </c>
-      <c r="F103" s="5" t="n">
+      <c r="F103" s="5">
         <v>63</v>
       </c>
-      <c r="G103" s="5" t="n">
-        <f aca="false">E103</f>
+      <c r="G103" s="5">
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
-      <c r="H103" s="6" t="n">
-        <f aca="false">F103</f>
+      <c r="H103" s="6">
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.85"/>
+    <col customWidth="1" min="4" max="4" style="0" width="17.420000000000002"/>
+    <col customWidth="1" min="5" max="5" style="0" width="20.850000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25">
       <c r="B1" s="7" t="s">
         <v>262</v>
       </c>
@@ -3512,7 +5793,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25">
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
         <v>263</v>
@@ -3524,7 +5805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25">
       <c r="B3" s="5" t="s">
         <v>172</v>
       </c>
@@ -3538,7 +5819,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25">
       <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
@@ -3552,7 +5833,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25">
       <c r="B5" s="5" t="s">
         <v>183</v>
       </c>
@@ -3566,7 +5847,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25">
       <c r="B6" s="5" t="s">
         <v>187</v>
       </c>
@@ -3580,7 +5861,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25">
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
@@ -3594,7 +5875,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25">
       <c r="B8" s="5" t="s">
         <v>194</v>
       </c>
@@ -3608,7 +5889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25">
       <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
@@ -3622,7 +5903,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25">
       <c r="B10" s="5" t="s">
         <v>201</v>
       </c>
@@ -3636,17 +5917,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25">
       <c r="B11" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>47</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="9">
         <v>47</v>
       </c>
     </row>
@@ -3654,42 +5935,38 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="16.28"/>
+    <col customWidth="1" min="2" max="2" style="0" width="10.710000000000001"/>
+    <col customWidth="1" min="3" max="3" style="0" width="11.710000000000001"/>
+    <col customWidth="1" min="4" max="4" style="2" width="16.859999999999999"/>
+    <col customWidth="1" min="5" max="5" style="0" width="13.43"/>
+    <col customWidth="1" min="6" max="6" style="7" width="9.1400000000000006"/>
+    <col customWidth="1" min="7" max="7" style="7" width="12.289999999999999"/>
+    <col customWidth="1" min="8" max="8" style="7" width="18.420000000000002"/>
+    <col customWidth="1" min="9" max="9" style="7" width="16.280000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="32.25" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3703,1314 +5980,1849 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <f aca="false">HEX2DEC(B2)</f>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:C9" si="16">HEX2DEC(B2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5" t="n">
+    <row r="3" ht="14.25">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <f aca="false">HEX2DEC(B3)</f>
+      <c r="C3" s="5">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="n">
+    <row r="4" ht="14.25">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <f aca="false">HEX2DEC(B4)</f>
+      <c r="C4" s="5">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="n">
+    <row r="5" ht="14.25">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">HEX2DEC(B5)</f>
+      <c r="C5" s="5">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="n">
+    <row r="6" ht="14.25">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <f aca="false">HEX2DEC(B6)</f>
+      <c r="C6" s="5">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="n">
+    <row r="7" ht="14.25">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <f aca="false">HEX2DEC(B7)</f>
+      <c r="C7" s="5">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="n">
+    <row r="8" ht="14.25">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <f aca="false">HEX2DEC(B8)</f>
+      <c r="C8" s="5">
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="n">
+    <row r="9" ht="14.25">
+      <c r="B9" s="5">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <f aca="false">HEX2DEC(B9)</f>
+      <c r="C9" s="5">
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
+    <row r="10" ht="14.25">
+      <c r="B10" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <f aca="false">HEX2DEC(B10)</f>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:C73" si="17">HEX2DEC(B10)</f>
         <v>10</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25">
       <c r="B11" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <f aca="false">HEX2DEC(B11)</f>
+      <c r="C11" s="5">
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25">
       <c r="B12" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <f aca="false">HEX2DEC(B12)</f>
+      <c r="C12" s="5">
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25">
       <c r="B13" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <f aca="false">HEX2DEC(B13)</f>
+      <c r="C13" s="5">
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25">
       <c r="B14" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <f aca="false">HEX2DEC(B14)</f>
+      <c r="C14" s="5">
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="9">
         <v>96</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="9">
         <v>126</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="n">
+    <row r="15" ht="14.25">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <f aca="false">HEX2DEC(B15)</f>
+      <c r="C15" s="5">
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="n">
+    <row r="16" ht="14.25">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <f aca="false">HEX2DEC(B16)</f>
+      <c r="C16" s="5">
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="n">
+    <row r="17" ht="14.25">
+      <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="n">
-        <f aca="false">HEX2DEC(B17)</f>
+      <c r="C17" s="5">
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="n">
+    <row r="18" ht="14.25">
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="n">
-        <f aca="false">HEX2DEC(B18)</f>
+      <c r="C18" s="5">
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="9">
         <v>81</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="9">
         <v>113</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="n">
+    <row r="19" ht="14.25">
+      <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="n">
-        <f aca="false">HEX2DEC(B19)</f>
+      <c r="C19" s="5">
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="9">
         <v>49</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25">
       <c r="B20" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <f aca="false">HEX2DEC(B20)</f>
+      <c r="C20" s="5">
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="9">
         <v>90</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="9">
         <v>122</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25">
       <c r="B21" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="5" t="n">
-        <f aca="false">HEX2DEC(B21)</f>
+      <c r="C21" s="5">
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="9">
         <v>83</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="9">
         <v>115</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25">
       <c r="B22" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <f aca="false">HEX2DEC(B22)</f>
+      <c r="C22" s="5">
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="9">
         <v>65</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="9">
         <v>97</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="14.25">
       <c r="B23" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <f aca="false">HEX2DEC(B23)</f>
+      <c r="C23" s="5">
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="9">
         <v>87</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="9">
         <v>119</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="14.25">
       <c r="B24" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <f aca="false">HEX2DEC(B24)</f>
+      <c r="C24" s="5">
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="9">
         <v>50</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="n">
+    <row r="25" ht="14.25">
+      <c r="B25" s="5">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="n">
-        <f aca="false">HEX2DEC(B25)</f>
+      <c r="C25" s="5">
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="9">
         <v>67</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="n">
+    <row r="26" ht="14.25">
+      <c r="B26" s="5">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <f aca="false">HEX2DEC(B26)</f>
+      <c r="C26" s="5">
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="9">
         <v>88</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="n">
+    <row r="27" ht="14.25">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="n">
-        <f aca="false">HEX2DEC(B27)</f>
+      <c r="C27" s="5">
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="9">
         <v>68</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="n">
+    <row r="28" ht="14.25">
+      <c r="B28" s="5">
         <v>24</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <f aca="false">HEX2DEC(B28)</f>
+      <c r="C28" s="5">
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="9">
         <v>69</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="n">
+    <row r="29" ht="14.25">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="n">
-        <f aca="false">HEX2DEC(B29)</f>
+      <c r="C29" s="5">
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="9">
         <v>52</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="n">
+    <row r="30" ht="14.25">
+      <c r="B30" s="5">
         <v>26</v>
       </c>
-      <c r="C30" s="5" t="n">
-        <f aca="false">HEX2DEC(B30)</f>
+      <c r="C30" s="5">
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="9">
         <v>51</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="n">
+    <row r="31" ht="14.25">
+      <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="n">
-        <f aca="false">HEX2DEC(B31)</f>
+      <c r="C31" s="5">
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="9">
         <v>32</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="14.25">
       <c r="B32" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C32" s="5" t="n">
-        <f aca="false">HEX2DEC(B32)</f>
+      <c r="C32" s="5">
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="9">
         <v>86</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="9">
         <v>118</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="14.25">
       <c r="B33" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C33" s="5" t="n">
-        <f aca="false">HEX2DEC(B33)</f>
+      <c r="C33" s="5">
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="9">
         <v>70</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E33" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="14.25">
       <c r="B34" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C34" s="5" t="n">
-        <f aca="false">HEX2DEC(B34)</f>
+      <c r="C34" s="5">
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="9">
         <v>84</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E34" s="9">
         <v>116</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="14.25">
       <c r="B35" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="5" t="n">
-        <f aca="false">HEX2DEC(B35)</f>
+      <c r="C35" s="5">
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="9">
         <v>82</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="14.25">
       <c r="B36" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C36" s="5" t="n">
-        <f aca="false">HEX2DEC(B36)</f>
+      <c r="C36" s="5">
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="9">
         <v>53</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E36" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="n">
+    <row r="37" ht="14.25">
+      <c r="B37" s="5">
         <v>31</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">HEX2DEC(B37)</f>
+      <c r="C37" s="5">
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="9">
         <v>78</v>
       </c>
-      <c r="E37" s="9" t="n">
+      <c r="E37" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5" t="n">
+    <row r="38" ht="14.25">
+      <c r="B38" s="5">
         <v>32</v>
       </c>
-      <c r="C38" s="5" t="n">
-        <f aca="false">HEX2DEC(B38)</f>
+      <c r="C38" s="5">
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="9">
         <v>66</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="E38" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="5" t="n">
+    <row r="39" ht="14.25">
+      <c r="B39" s="5">
         <v>33</v>
       </c>
-      <c r="C39" s="5" t="n">
-        <f aca="false">HEX2DEC(B39)</f>
+      <c r="C39" s="5">
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="9">
         <v>72</v>
       </c>
-      <c r="E39" s="9" t="n">
+      <c r="E39" s="9">
         <v>104</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5" t="n">
+    <row r="40" ht="14.25">
+      <c r="B40" s="5">
         <v>34</v>
       </c>
-      <c r="C40" s="5" t="n">
-        <f aca="false">HEX2DEC(B40)</f>
+      <c r="C40" s="5">
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="9">
         <v>71</v>
       </c>
-      <c r="E40" s="9" t="n">
+      <c r="E40" s="9">
         <v>103</v>
       </c>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="5" t="n">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="B41" s="5">
         <v>35</v>
       </c>
-      <c r="C41" s="5" t="n">
-        <f aca="false">HEX2DEC(B41)</f>
+      <c r="C41" s="5">
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
-      <c r="D41" s="9" t="n">
+      <c r="D41" s="9">
         <v>89</v>
       </c>
-      <c r="E41" s="9" t="n">
+      <c r="E41" s="9">
         <v>121</v>
       </c>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="5" t="n">
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" s="5">
         <v>36</v>
       </c>
-      <c r="C42" s="5" t="n">
-        <f aca="false">HEX2DEC(B42)</f>
+      <c r="C42" s="5">
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
-      <c r="D42" s="9" t="n">
+      <c r="D42" s="9">
         <v>54</v>
       </c>
-      <c r="E42" s="9" t="n">
+      <c r="E42" s="9">
         <v>94</v>
       </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" ht="14.25">
       <c r="B43" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C43" s="5" t="n">
-        <f aca="false">HEX2DEC(B43)</f>
+      <c r="C43" s="5">
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
-      <c r="D43" s="9" t="n">
+      <c r="D43" s="9">
         <v>77</v>
       </c>
-      <c r="E43" s="9" t="n">
+      <c r="E43" s="9">
         <v>109</v>
       </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" ht="14.25">
       <c r="B44" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="5" t="n">
-        <f aca="false">HEX2DEC(B44)</f>
+      <c r="C44" s="5">
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="9">
         <v>74</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E44" s="9">
         <v>106</v>
       </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" ht="14.25">
       <c r="B45" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C45" s="5" t="n">
-        <f aca="false">HEX2DEC(B45)</f>
+      <c r="C45" s="5">
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="9">
         <v>85</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E45" s="9">
         <v>117</v>
       </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" ht="14.25">
       <c r="B46" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="5" t="n">
-        <f aca="false">HEX2DEC(B46)</f>
+      <c r="C46" s="5">
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
-      <c r="D46" s="9" t="n">
+      <c r="D46" s="9">
         <v>55</v>
       </c>
-      <c r="E46" s="9" t="n">
+      <c r="E46" s="9">
         <v>38</v>
       </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" ht="14.25">
       <c r="B47" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="5" t="n">
-        <f aca="false">HEX2DEC(B47)</f>
+      <c r="C47" s="5">
+        <f t="shared" si="17"/>
         <v>62</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="9">
         <v>56</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="9">
         <v>42</v>
       </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="5" t="n">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="B48" s="5">
         <v>41</v>
       </c>
-      <c r="C48" s="5" t="n">
-        <f aca="false">HEX2DEC(B48)</f>
+      <c r="C48" s="5">
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D48" s="9">
         <v>44</v>
       </c>
-      <c r="E48" s="9" t="n">
+      <c r="E48" s="9">
         <v>60</v>
       </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5" t="n">
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="B49" s="5">
         <v>42</v>
       </c>
-      <c r="C49" s="5" t="n">
-        <f aca="false">HEX2DEC(B49)</f>
+      <c r="C49" s="5">
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D49" s="9">
         <v>75</v>
       </c>
-      <c r="E49" s="9" t="n">
+      <c r="E49" s="9">
         <v>107</v>
       </c>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="5" t="n">
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="B50" s="5">
         <v>43</v>
       </c>
-      <c r="C50" s="5" t="n">
-        <f aca="false">HEX2DEC(B50)</f>
+      <c r="C50" s="5">
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="D50" s="9" t="n">
+      <c r="D50" s="9">
         <v>73</v>
       </c>
-      <c r="E50" s="9" t="n">
+      <c r="E50" s="9">
         <v>105</v>
       </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="5" t="n">
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="B51" s="5">
         <v>44</v>
       </c>
-      <c r="C51" s="5" t="n">
-        <f aca="false">HEX2DEC(B51)</f>
+      <c r="C51" s="5">
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="D51" s="9" t="n">
+      <c r="D51" s="9">
         <v>79</v>
       </c>
-      <c r="E51" s="9" t="n">
+      <c r="E51" s="9">
         <v>111</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5" t="n">
+    <row r="52" ht="14.25">
+      <c r="B52" s="5">
         <v>45</v>
       </c>
-      <c r="C52" s="5" t="n">
-        <f aca="false">HEX2DEC(B52)</f>
+      <c r="C52" s="5">
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="D52" s="9" t="n">
+      <c r="D52" s="9">
         <v>48</v>
       </c>
-      <c r="E52" s="9" t="n">
+      <c r="E52" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="5" t="n">
+    <row r="53" ht="14.25">
+      <c r="B53" s="5">
         <v>46</v>
       </c>
-      <c r="C53" s="5" t="n">
-        <f aca="false">HEX2DEC(B53)</f>
+      <c r="C53" s="5">
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
-      <c r="D53" s="9" t="n">
+      <c r="D53" s="9">
         <v>57</v>
       </c>
-      <c r="E53" s="9" t="n">
+      <c r="E53" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="5" t="n">
+    <row r="54" ht="14.25">
+      <c r="B54" s="5">
         <v>49</v>
       </c>
-      <c r="C54" s="5" t="n">
-        <f aca="false">HEX2DEC(B54)</f>
+      <c r="C54" s="5">
+        <f t="shared" si="17"/>
         <v>73</v>
       </c>
-      <c r="D54" s="9" t="n">
+      <c r="D54" s="9">
         <v>46</v>
       </c>
-      <c r="E54" s="9" t="n">
+      <c r="E54" s="9">
         <v>62</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" ht="14.25">
       <c r="B55" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="5" t="n">
-        <f aca="false">HEX2DEC(B55)</f>
+      <c r="C55" s="5">
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
-      <c r="D55" s="9" t="n">
+      <c r="D55" s="9">
         <v>47</v>
       </c>
-      <c r="E55" s="9" t="n">
+      <c r="E55" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" ht="14.25">
       <c r="B56" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C56" s="5" t="n">
-        <f aca="false">HEX2DEC(B56)</f>
+      <c r="C56" s="5">
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="D56" s="9" t="n">
+      <c r="D56" s="9">
         <v>76</v>
       </c>
-      <c r="E56" s="9" t="n">
+      <c r="E56" s="9">
         <v>108</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" ht="14.25">
       <c r="B57" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="5" t="n">
-        <f aca="false">HEX2DEC(B57)</f>
+      <c r="C57" s="5">
+        <f t="shared" si="17"/>
         <v>76</v>
       </c>
-      <c r="D57" s="9" t="n">
+      <c r="D57" s="9">
         <v>59</v>
       </c>
-      <c r="E57" s="9" t="n">
+      <c r="E57" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" ht="14.25">
       <c r="B58" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="5" t="n">
-        <f aca="false">HEX2DEC(B58)</f>
+      <c r="C58" s="5">
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
-      <c r="D58" s="9" t="n">
+      <c r="D58" s="9">
         <v>80</v>
       </c>
-      <c r="E58" s="9" t="n">
+      <c r="E58" s="9">
         <v>112</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" ht="14.25">
       <c r="B59" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="5" t="n">
-        <f aca="false">HEX2DEC(B59)</f>
+      <c r="C59" s="5">
+        <f t="shared" si="17"/>
         <v>78</v>
       </c>
-      <c r="D59" s="9" t="n">
+      <c r="D59" s="9">
         <v>45</v>
       </c>
-      <c r="E59" s="9" t="n">
+      <c r="E59" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="5" t="n">
+    <row r="60" ht="14.25">
+      <c r="B60" s="5">
         <v>52</v>
       </c>
-      <c r="C60" s="5" t="n">
-        <f aca="false">HEX2DEC(B60)</f>
+      <c r="C60" s="5">
+        <f t="shared" si="17"/>
         <v>82</v>
       </c>
-      <c r="D60" s="9" t="n">
+      <c r="D60" s="9">
         <v>39</v>
       </c>
-      <c r="E60" s="9" t="n">
+      <c r="E60" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="5" t="n">
+    <row r="61" ht="14.25">
+      <c r="B61" s="5">
         <v>54</v>
       </c>
-      <c r="C61" s="5" t="n">
-        <f aca="false">HEX2DEC(B61)</f>
+      <c r="C61" s="5">
+        <f t="shared" si="17"/>
         <v>84</v>
       </c>
-      <c r="D61" s="9" t="n">
+      <c r="D61" s="9">
         <v>91</v>
       </c>
-      <c r="E61" s="9" t="n">
+      <c r="E61" s="9">
         <v>123</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="5" t="n">
+    <row r="62" ht="14.25">
+      <c r="B62" s="5">
         <v>55</v>
       </c>
-      <c r="C62" s="5" t="n">
-        <f aca="false">HEX2DEC(B62)</f>
+      <c r="C62" s="5">
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
-      <c r="D62" s="9" t="n">
+      <c r="D62" s="9">
         <v>61</v>
       </c>
-      <c r="E62" s="9" t="n">
+      <c r="E62" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="5" t="n">
+    <row r="63" ht="14.25">
+      <c r="B63" s="5">
         <v>58</v>
       </c>
-      <c r="C63" s="5" t="n">
-        <f aca="false">HEX2DEC(B63)</f>
+      <c r="C63" s="5">
+        <f t="shared" si="17"/>
         <v>88</v>
       </c>
-      <c r="D63" s="9" t="n">
+      <c r="D63" s="9">
         <v>0</v>
       </c>
-      <c r="E63" s="9" t="n">
+      <c r="E63" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="5" t="n">
+    <row r="64" ht="14.25">
+      <c r="B64" s="5">
         <v>59</v>
       </c>
-      <c r="C64" s="5" t="n">
-        <f aca="false">HEX2DEC(B64)</f>
+      <c r="C64" s="5">
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
-      <c r="D64" s="9" t="n">
+      <c r="D64" s="9">
         <v>0</v>
       </c>
-      <c r="E64" s="9" t="n">
+      <c r="E64" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" ht="14.25">
       <c r="B65" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C65" s="5" t="n">
-        <f aca="false">HEX2DEC(B65)</f>
+      <c r="C65" s="5">
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="D65" s="9" t="n">
+      <c r="D65" s="9">
         <v>1</v>
       </c>
-      <c r="E65" s="9" t="n">
+      <c r="E65" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" ht="14.25">
       <c r="B66" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C66" s="5" t="n">
-        <f aca="false">HEX2DEC(B66)</f>
+      <c r="C66" s="5">
+        <f t="shared" si="17"/>
         <v>91</v>
       </c>
-      <c r="D66" s="9" t="n">
+      <c r="D66" s="9">
         <v>93</v>
       </c>
-      <c r="E66" s="9" t="n">
+      <c r="E66" s="9">
         <v>125</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" ht="14.25">
       <c r="B67" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="5" t="n">
-        <f aca="false">HEX2DEC(B67)</f>
+      <c r="C67" s="5">
+        <f t="shared" si="17"/>
         <v>93</v>
       </c>
-      <c r="D67" s="9" t="n">
+      <c r="D67" s="9">
         <v>92</v>
       </c>
-      <c r="E67" s="9" t="n">
+      <c r="E67" s="9">
         <v>124</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="5" t="n">
+    <row r="68" ht="14.25">
+      <c r="B68" s="5">
         <v>66</v>
       </c>
-      <c r="C68" s="5" t="n">
-        <f aca="false">HEX2DEC(B68)</f>
+      <c r="C68" s="5">
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
-      <c r="D68" s="9" t="n">
+      <c r="D68" s="9">
         <v>8</v>
       </c>
-      <c r="E68" s="9" t="n">
+      <c r="E68" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="5" t="n">
+    <row r="69" ht="14.25">
+      <c r="B69" s="5">
         <v>69</v>
       </c>
-      <c r="C69" s="5" t="n">
-        <f aca="false">HEX2DEC(B69)</f>
+      <c r="C69" s="5">
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="D69" s="9" t="n">
+      <c r="D69" s="9">
         <v>49</v>
       </c>
-      <c r="E69" s="9" t="n">
+      <c r="E69" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" ht="14.25">
       <c r="B70" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="5" t="n">
-        <f aca="false">HEX2DEC(B70)</f>
+      <c r="C70" s="5">
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
-      <c r="D70" s="9" t="n">
+      <c r="D70" s="9">
         <v>52</v>
       </c>
-      <c r="E70" s="9" t="n">
+      <c r="E70" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" ht="14.25">
       <c r="B71" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="5" t="n">
-        <f aca="false">HEX2DEC(B71)</f>
+      <c r="C71" s="5">
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
-      <c r="D71" s="9" t="n">
+      <c r="D71" s="9">
         <v>55</v>
       </c>
-      <c r="E71" s="9" t="n">
+      <c r="E71" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="5" t="n">
+    <row r="72" ht="14.25">
+      <c r="B72" s="5">
         <v>70</v>
       </c>
-      <c r="C72" s="5" t="n">
-        <f aca="false">HEX2DEC(B72)</f>
+      <c r="C72" s="5">
+        <f t="shared" si="17"/>
         <v>112</v>
       </c>
-      <c r="D72" s="9" t="n">
+      <c r="D72" s="9">
         <v>48</v>
       </c>
-      <c r="E72" s="9" t="n">
+      <c r="E72" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="5" t="n">
+    <row r="73" ht="14.25">
+      <c r="B73" s="5">
         <v>71</v>
       </c>
-      <c r="C73" s="5" t="n">
-        <f aca="false">HEX2DEC(B73)</f>
+      <c r="C73" s="5">
+        <f t="shared" si="17"/>
         <v>113</v>
       </c>
-      <c r="D73" s="9" t="n">
+      <c r="D73" s="9">
         <v>46</v>
       </c>
-      <c r="E73" s="9" t="n">
+      <c r="E73" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="5" t="n">
+    <row r="74" ht="14.25">
+      <c r="B74" s="5">
         <v>72</v>
       </c>
-      <c r="C74" s="5" t="n">
-        <f aca="false">HEX2DEC(B74)</f>
+      <c r="C74" s="5">
+        <f t="shared" ref="C74:C87" si="18">HEX2DEC(B74)</f>
         <v>114</v>
       </c>
-      <c r="D74" s="9" t="n">
+      <c r="D74" s="9">
         <v>50</v>
       </c>
-      <c r="E74" s="9" t="n">
+      <c r="E74" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="5" t="n">
+    <row r="75" ht="14.25">
+      <c r="B75" s="5">
         <v>73</v>
       </c>
-      <c r="C75" s="5" t="n">
-        <f aca="false">HEX2DEC(B75)</f>
+      <c r="C75" s="5">
+        <f t="shared" si="18"/>
         <v>115</v>
       </c>
-      <c r="D75" s="9" t="n">
+      <c r="D75" s="9">
         <v>53</v>
       </c>
-      <c r="E75" s="9" t="n">
+      <c r="E75" s="9">
         <v>53</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="5" t="n">
+    <row r="76" ht="14.25">
+      <c r="B76" s="5">
         <v>74</v>
       </c>
-      <c r="C76" s="5" t="n">
-        <f aca="false">HEX2DEC(B76)</f>
+      <c r="C76" s="5">
+        <f t="shared" si="18"/>
         <v>116</v>
       </c>
-      <c r="D76" s="9" t="n">
+      <c r="D76" s="9">
         <v>54</v>
       </c>
-      <c r="E76" s="9" t="n">
+      <c r="E76" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="5" t="n">
+    <row r="77" ht="14.25">
+      <c r="B77" s="5">
         <v>75</v>
       </c>
-      <c r="C77" s="5" t="n">
-        <f aca="false">HEX2DEC(B77)</f>
+      <c r="C77" s="5">
+        <f t="shared" si="18"/>
         <v>117</v>
       </c>
-      <c r="D77" s="9" t="n">
+      <c r="D77" s="9">
         <v>56</v>
       </c>
-      <c r="E77" s="9" t="n">
+      <c r="E77" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="5" t="n">
+    <row r="78" ht="14.25">
+      <c r="B78" s="5">
         <v>76</v>
       </c>
-      <c r="C78" s="5" t="n">
-        <f aca="false">HEX2DEC(B78)</f>
+      <c r="C78" s="5">
+        <f t="shared" si="18"/>
         <v>118</v>
       </c>
-      <c r="D78" s="9" t="n">
+      <c r="D78" s="9">
         <v>27</v>
       </c>
-      <c r="E78" s="9" t="n">
+      <c r="E78" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="5" t="n">
+    <row r="79" ht="14.25">
+      <c r="B79" s="5">
         <v>77</v>
       </c>
-      <c r="C79" s="5" t="n">
-        <f aca="false">HEX2DEC(B79)</f>
+      <c r="C79" s="5">
+        <f t="shared" si="18"/>
         <v>119</v>
       </c>
-      <c r="D79" s="9" t="n">
+      <c r="D79" s="9">
         <v>0</v>
       </c>
-      <c r="E79" s="9" t="n">
+      <c r="E79" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="5" t="n">
+    <row r="80" ht="14.25">
+      <c r="B80" s="5">
         <v>78</v>
       </c>
-      <c r="C80" s="5" t="n">
-        <f aca="false">HEX2DEC(B80)</f>
+      <c r="C80" s="5">
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
-      <c r="D80" s="9" t="n">
+      <c r="D80" s="9">
         <v>0</v>
       </c>
-      <c r="E80" s="9" t="n">
+      <c r="E80" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="5" t="n">
+    <row r="81" ht="14.25">
+      <c r="B81" s="5">
         <v>79</v>
       </c>
-      <c r="C81" s="5" t="n">
-        <f aca="false">HEX2DEC(B81)</f>
+      <c r="C81" s="5">
+        <f t="shared" si="18"/>
         <v>121</v>
       </c>
-      <c r="D81" s="9" t="n">
+      <c r="D81" s="9">
         <v>43</v>
       </c>
-      <c r="E81" s="9" t="n">
+      <c r="E81" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" ht="14.25">
       <c r="B82" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C82" s="5" t="n">
-        <f aca="false">HEX2DEC(B82)</f>
+      <c r="C82" s="5">
+        <f t="shared" si="18"/>
         <v>122</v>
       </c>
-      <c r="D82" s="9" t="n">
+      <c r="D82" s="9">
         <v>51</v>
       </c>
-      <c r="E82" s="9" t="n">
+      <c r="E82" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" ht="14.25">
       <c r="B83" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C83" s="5" t="n">
-        <f aca="false">HEX2DEC(B83)</f>
+      <c r="C83" s="5">
+        <f t="shared" si="18"/>
         <v>123</v>
       </c>
-      <c r="D83" s="9" t="n">
+      <c r="D83" s="9">
         <v>45</v>
       </c>
-      <c r="E83" s="9" t="n">
+      <c r="E83" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" ht="14.25">
       <c r="B84" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C84" s="5" t="n">
-        <f aca="false">HEX2DEC(B84)</f>
+      <c r="C84" s="5">
+        <f t="shared" si="18"/>
         <v>124</v>
       </c>
-      <c r="D84" s="9" t="n">
+      <c r="D84" s="9">
         <v>42</v>
       </c>
-      <c r="E84" s="9" t="n">
+      <c r="E84" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" ht="14.25">
       <c r="B85" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C85" s="5" t="n">
-        <f aca="false">HEX2DEC(B85)</f>
+      <c r="C85" s="5">
+        <f t="shared" si="18"/>
         <v>125</v>
       </c>
-      <c r="D85" s="9" t="n">
+      <c r="D85" s="9">
         <v>57</v>
       </c>
-      <c r="E85" s="9" t="n">
+      <c r="E85" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" ht="14.25">
       <c r="B86" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="5" t="n">
-        <f aca="false">HEX2DEC(B86)</f>
+      <c r="C86" s="5">
+        <f t="shared" si="18"/>
         <v>126</v>
       </c>
-      <c r="D86" s="9" t="n">
+      <c r="D86" s="9">
         <v>0</v>
       </c>
-      <c r="E86" s="9" t="n">
+      <c r="E86" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="5" t="n">
+    <row r="87" ht="14.25">
+      <c r="B87" s="5">
         <v>83</v>
       </c>
-      <c r="C87" s="5" t="n">
-        <f aca="false">HEX2DEC(B87)</f>
+      <c r="C87" s="5">
+        <f t="shared" si="18"/>
         <v>131</v>
       </c>
-      <c r="D87" s="9" t="n">
+      <c r="D87" s="9">
         <v>0</v>
       </c>
-      <c r="E87" s="9" t="n">
+      <c r="E87" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" style="7" width="14.28125"/>
+    <col min="4" max="4" style="7" width="9.140625"/>
+    <col customWidth="1" min="5" max="5" width="17.7109375"/>
+    <col customWidth="1" min="6" max="6" width="76.421875"/>
+    <col customWidth="1" min="7" max="10" width="9.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" ht="15">
+      <c r="B3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" ht="15">
+      <c r="B4" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="1">
+      <c r="B5" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" ht="62.25" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="B9" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="B10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="B11" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="B12" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" ht="51" customHeight="1">
+      <c r="B13" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" ht="30" customHeight="1"/>
+    <row r="15" ht="30" customHeight="1">
+      <c r="B15" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" ht="42.75">
+      <c r="B16" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" ht="15">
+      <c r="B17" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" ht="15">
+      <c r="B18" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" ht="15">
+      <c r="B19" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" ht="15">
+      <c r="B20" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" ht="15">
+      <c r="B21" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" ht="30">
+      <c r="B22" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" ht="30">
+      <c r="B23" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" ht="47.25">
+      <c r="B24" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" ht="77.25">
+      <c r="B25" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" ht="46.5">
+      <c r="B26" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5">
+      <c r="B27" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5">
+      <c r="B28" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" ht="45">
+      <c r="B29" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" ht="28.5">
+      <c r="B30" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" ht="15">
+      <c r="B31" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" ht="15">
+      <c r="B32" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" ht="30.75">
+      <c r="B33" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="F17:F20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E8" tooltip=""/>
+    <hyperlink r:id="rId2" ref="F8" tooltip=""/>
+    <hyperlink r:id="rId2" ref="F9" tooltip=""/>
+    <hyperlink r:id="rId3" ref="E10" tooltip=""/>
+    <hyperlink r:id="rId2" ref="F10" tooltip=""/>
+    <hyperlink r:id="rId4" ref="F21" tooltip="ANSI.SYS"/>
+    <hyperlink r:id="rId4" ref="F22" tooltip="ANSI.SYS"/>
+    <hyperlink r:id="rId4" ref="F23" tooltip="ANSI.SYS"/>
+    <hyperlink r:id="rId4" ref="F27" tooltip="ANSI.SYS"/>
+    <hyperlink r:id="rId4" ref="F28" tooltip="ANSI.SYS"/>
+    <hyperlink r:id="rId5" ref="E30" tooltip=""/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/character-codes.xlsx
+++ b/docs/character-codes.xlsx
@@ -3333,7 +3333,7 @@
     <t xml:space="preserve">CMD_INSTOG</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggles insert mode.</t>
+    <t xml:space="preserve">Toggles insert mode. In inset mode, new characters are inserted at the cursor and the line moves right. The last character is lost and can be stored in software.</t>
   </si>
   <si>
     <t xml:space="preserve">'024</t>
@@ -9710,8 +9710,8 @@
   </sheetPr>
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10127,7 +10127,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
         <v>516</v>
       </c>
